--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1269088.135537568</v>
+        <v>1268326.795722634</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19891475.19381555</v>
+        <v>19891475.19381554</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137047.2101710993</v>
+        <v>137047.2101710995</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6765756.426803422</v>
+        <v>6765756.426803419</v>
       </c>
     </row>
     <row r="11">
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="F3" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="G3" t="n">
-        <v>36.39025468426209</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>41.31500304752735</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="V4" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>4.203262463343098</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>36.39025468426205</v>
       </c>
       <c r="W6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Y6" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>36.39025468426209</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="H7" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426207</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="X7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
+        <v>33.76104808841092</v>
+      </c>
+      <c r="D8" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="D8" t="n">
-        <v>244.0600010256503</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>393.2392981246246</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>13.8523599663048</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>85.06001947974396</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1356,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773027</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>73.5472170632645</v>
+        <v>73.54721706326428</v>
       </c>
       <c r="T11" t="n">
         <v>216.0861369002552</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>13.00044540396</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>154.4695110303103</v>
@@ -1587,13 +1587,13 @@
         <v>275.6387194280496</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>106.7430509923732</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>52.59448966006143</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800595</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1773,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>13.00044540396</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.4695110303103</v>
       </c>
       <c r="T16" t="n">
-        <v>206.7672961366494</v>
+        <v>242.6411325661992</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6387194280496</v>
+        <v>266.3562410839194</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1903,7 +1903,7 @@
         <v>256.5975420350373</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>13.00044540396</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>154.4695110303103</v>
@@ -2058,10 +2058,10 @@
         <v>242.6411325661992</v>
       </c>
       <c r="U19" t="n">
-        <v>85.29537196818924</v>
+        <v>275.6387194280496</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>270.9622638628661</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>396.9771327990198</v>
+        <v>396.9771327990206</v>
       </c>
       <c r="H20" t="n">
         <v>282.0735291080485</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.5472170632645</v>
+        <v>73.54721706326428</v>
       </c>
       <c r="T20" t="n">
         <v>216.0861369002552</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5975420350374</v>
+        <v>256.5975420350373</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2247,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2292,7 +2292,7 @@
         <v>154.4695110303103</v>
       </c>
       <c r="T22" t="n">
-        <v>65.29823051029904</v>
+        <v>233.3586542220694</v>
       </c>
       <c r="U22" t="n">
         <v>275.6387194280496</v>
@@ -2374,7 +2374,7 @@
         <v>216.0861369002552</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5975420350366</v>
+        <v>256.5975420350373</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2493,7 +2493,7 @@
         <v>163.7529215158683</v>
       </c>
       <c r="H25" t="n">
-        <v>28.82460141339272</v>
+        <v>136.8810888122203</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>13.00044540396</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>154.4695110303103</v>
@@ -2535,7 +2535,7 @@
         <v>275.6387194280496</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>189.0299110534061</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.5472170632645</v>
+        <v>73.54721706326428</v>
       </c>
       <c r="T26" t="n">
         <v>216.0861369002552</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5975420350366</v>
+        <v>256.5975420350373</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>12.55753047589689</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>121.4777248502215</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.7529215158683</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>136.8810888122203</v>
       </c>
       <c r="I28" t="n">
         <v>82.28686006103263</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>13.00044540396</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>154.4695110303103</v>
@@ -2967,7 +2967,7 @@
         <v>163.7529215158683</v>
       </c>
       <c r="H31" t="n">
-        <v>136.8810888122203</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>82.28686006103263</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>13.00044540396</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>154.4695110303103</v>
       </c>
       <c r="T31" t="n">
-        <v>52.29778510633924</v>
+        <v>242.6411325661992</v>
       </c>
       <c r="U31" t="n">
         <v>275.6387194280496</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>228.8443271258912</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3085,7 +3085,7 @@
         <v>216.0861369002552</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5975420350373</v>
+        <v>256.5975420350366</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3207,7 +3207,7 @@
         <v>136.8810888122203</v>
       </c>
       <c r="I34" t="n">
-        <v>82.28686006103263</v>
+        <v>59.41346903544261</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.00044540396</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>154.4695110303103</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>242.6411325661992</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.80212651917265</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.54721706326428</v>
+        <v>73.5472170632645</v>
       </c>
       <c r="T35" t="n">
         <v>216.0861369002552</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5975420350366</v>
+        <v>256.5975420350374</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3429,13 +3429,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.7529215158683</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.4695110303103</v>
+        <v>141.3458218449024</v>
       </c>
       <c r="T37" t="n">
         <v>242.6411325661992</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.5349185618825</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3559,7 +3559,7 @@
         <v>216.0861369002552</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5975420350373</v>
+        <v>256.5975420350374</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3666,13 +3666,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7529215158683</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>13.00044540396</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>154.4695110303103</v>
@@ -3717,10 +3717,10 @@
         <v>242.6411325661992</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6387194280496</v>
+        <v>273.2358008700103</v>
       </c>
       <c r="V40" t="n">
-        <v>257.9618184589063</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3793,10 +3793,10 @@
         <v>73.54721706326428</v>
       </c>
       <c r="T41" t="n">
-        <v>216.0861369002543</v>
+        <v>216.0861369002552</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5975420350374</v>
+        <v>256.5975420350373</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3909,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.7529215158683</v>
@@ -3918,7 +3918,7 @@
         <v>136.8810888122203</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>82.28686006103263</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>59.41346903544308</v>
+        <v>154.4695110303103</v>
       </c>
       <c r="T43" t="n">
         <v>242.6411325661992</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>240.5349185618825</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.54721706326428</v>
+        <v>73.5472170632645</v>
       </c>
       <c r="T44" t="n">
         <v>216.0861369002552</v>
@@ -4036,7 +4036,7 @@
         <v>256.5975420350373</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.7529215158683</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>65.59493506402123</v>
+        <v>240.5349185618825</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4312,40 +4312,40 @@
         <v>88.7359473806426</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549119</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419042</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F2" t="n">
-        <v>3.305200243802204</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="G2" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="H2" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="I2" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L2" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M2" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N2" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O2" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P2" t="n">
         <v>83.45630615600527</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="C3" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D3" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E3" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F3" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G3" t="n">
         <v>3.305200243802188</v>
@@ -4412,7 +4412,7 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K3" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L3" t="n">
         <v>42.55445313895319</v>
@@ -4448,13 +4448,13 @@
         <v>123.5276858794757</v>
       </c>
       <c r="W3" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X3" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="Y3" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C4" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D4" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E4" t="n">
         <v>45.03752655443588</v>
@@ -4488,13 +4488,13 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="L4" t="n">
         <v>44.20705326085427</v>
-      </c>
-      <c r="K4" t="n">
-        <v>85.10890627790634</v>
-      </c>
-      <c r="L4" t="n">
-        <v>85.10890627790634</v>
       </c>
       <c r="M4" t="n">
         <v>85.10890627790634</v>
@@ -4503,10 +4503,10 @@
         <v>126.0107592949584</v>
       </c>
       <c r="O4" t="n">
-        <v>126.0107592949584</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0107592949584</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
@@ -4518,22 +4518,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T4" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U4" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V4" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W4" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X4" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064263</v>
+        <v>88.73594738064259</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085427</v>
+        <v>44.20705326085425</v>
       </c>
       <c r="K5" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085425</v>
       </c>
       <c r="L5" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085425</v>
       </c>
       <c r="M5" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085425</v>
       </c>
       <c r="N5" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085425</v>
       </c>
       <c r="O5" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085425</v>
       </c>
       <c r="P5" t="n">
-        <v>126.0107592949584</v>
+        <v>85.10890627790631</v>
       </c>
       <c r="Q5" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R5" t="n">
         <v>165.2600121901094</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443587</v>
       </c>
       <c r="C6" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443587</v>
       </c>
       <c r="D6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="E6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="F6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I6" t="n">
         <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>70.27072642131186</v>
+        <v>70.27072642131185</v>
       </c>
       <c r="K6" t="n">
-        <v>70.27072642131186</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L6" t="n">
-        <v>70.27072642131186</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="M6" t="n">
-        <v>70.27072642131186</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="N6" t="n">
-        <v>70.27072642131186</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="O6" t="n">
-        <v>83.45630615600527</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="P6" t="n">
-        <v>83.45630615600527</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="Q6" t="n">
         <v>124.3581591730573</v>
@@ -4676,22 +4676,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W6" t="n">
-        <v>40.06303325820834</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X6" t="n">
-        <v>40.06303325820834</v>
+        <v>86.76985286506955</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506955</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.79535956884203</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C7" t="n">
-        <v>81.79535956884203</v>
+        <v>81.795359568842</v>
       </c>
       <c r="D7" t="n">
-        <v>81.79535956884203</v>
+        <v>81.795359568842</v>
       </c>
       <c r="E7" t="n">
-        <v>81.79535956884203</v>
+        <v>81.795359568842</v>
       </c>
       <c r="F7" t="n">
-        <v>81.79535956884203</v>
+        <v>81.795359568842</v>
       </c>
       <c r="G7" t="n">
-        <v>45.03752655443588</v>
+        <v>40.06303325820832</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085425</v>
       </c>
       <c r="K7" t="n">
-        <v>42.55445313895319</v>
+        <v>85.10890627790631</v>
       </c>
       <c r="L7" t="n">
-        <v>42.55445313895319</v>
+        <v>85.10890627790631</v>
       </c>
       <c r="M7" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790631</v>
       </c>
       <c r="N7" t="n">
-        <v>124.3581591730573</v>
+        <v>85.10890627790631</v>
       </c>
       <c r="O7" t="n">
-        <v>124.3581591730573</v>
+        <v>85.10890627790631</v>
       </c>
       <c r="P7" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
@@ -4764,7 +4764,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W7" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X7" t="n">
         <v>123.5276858794757</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.069156190556</v>
+        <v>550.6055673650617</v>
       </c>
       <c r="C8" t="n">
-        <v>738.4874819278243</v>
+        <v>516.503498588889</v>
       </c>
       <c r="D8" t="n">
-        <v>491.9622283665614</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2278875652606</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F8" t="n">
         <v>34.36045797446834</v>
@@ -4804,28 +4804,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L8" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>857.0776321906106</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N8" t="n">
-        <v>857.0776321906106</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O8" t="n">
-        <v>857.0776321906106</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R8" t="n">
         <v>1697.183430080417</v>
@@ -4834,22 +4834,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W8" t="n">
-        <v>1612.716505715692</v>
+        <v>996.2529168901973</v>
       </c>
       <c r="X8" t="n">
-        <v>1597.614446335406</v>
+        <v>577.110453469508</v>
       </c>
       <c r="Y8" t="n">
-        <v>1593.368726675464</v>
+        <v>572.8647338095655</v>
       </c>
     </row>
     <row r="9">
@@ -4901,7 +4901,7 @@
         <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>187.8381257054811</v>
+        <v>292.4245917140844</v>
       </c>
       <c r="C10" t="n">
-        <v>187.8381257054811</v>
+        <v>119.8628801973093</v>
       </c>
       <c r="D10" t="n">
-        <v>187.8381257054811</v>
+        <v>119.8628801973093</v>
       </c>
       <c r="E10" t="n">
-        <v>187.8381257054811</v>
+        <v>119.8628801973093</v>
       </c>
       <c r="F10" t="n">
-        <v>187.8381257054811</v>
+        <v>119.8628801973093</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>119.8628801973093</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>119.8628801973093</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4995,19 +4995,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.8381257054811</v>
+        <v>484.2432104330715</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.533847365174</v>
+        <v>2523.533847365177</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.391374548597</v>
+        <v>2085.3913745486</v>
       </c>
       <c r="D11" t="n">
         <v>1649.481589723042</v>
@@ -5032,19 +5032,19 @@
         <v>787.8394152905448</v>
       </c>
       <c r="G11" t="n">
-        <v>386.8524124632521</v>
+        <v>386.8524124632522</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9296557884556</v>
+        <v>101.9296557884557</v>
       </c>
       <c r="I11" t="n">
-        <v>117.0444426702491</v>
+        <v>117.0444426702492</v>
       </c>
       <c r="J11" t="n">
-        <v>151.2191179325643</v>
+        <v>151.2191179325644</v>
       </c>
       <c r="K11" t="n">
-        <v>202.4380972801096</v>
+        <v>202.4380972801097</v>
       </c>
       <c r="L11" t="n">
         <v>1341.039736505564</v>
@@ -5059,34 +5059,34 @@
         <v>4814.389479420336</v>
       </c>
       <c r="P11" t="n">
-        <v>4872.291492952965</v>
+        <v>5027.707633285819</v>
       </c>
       <c r="Q11" t="n">
-        <v>4915.773493727449</v>
+        <v>5071.189634060302</v>
       </c>
       <c r="R11" t="n">
-        <v>5096.48278942278</v>
+        <v>5096.482789422783</v>
       </c>
       <c r="S11" t="n">
-        <v>5022.192671177058</v>
+        <v>5022.192671177061</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.923846025285</v>
+        <v>4803.923846025288</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.734409626258</v>
+        <v>4544.73440962626</v>
       </c>
       <c r="V11" t="n">
-        <v>4182.117459560084</v>
+        <v>4182.117459560087</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.262004971118</v>
+        <v>3777.26200497112</v>
       </c>
       <c r="X11" t="n">
-        <v>3358.119541550428</v>
+        <v>3358.119541550431</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.833417850082</v>
+        <v>2949.833417850085</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>605.7586606659</v>
       </c>
       <c r="C12" t="n">
-        <v>499.3021995025423</v>
+        <v>499.3021995025424</v>
       </c>
       <c r="D12" t="n">
         <v>404.2119106490956</v>
@@ -5111,31 +5111,31 @@
         <v>226.7076575922109</v>
       </c>
       <c r="G12" t="n">
-        <v>141.5423805110521</v>
+        <v>141.5423805110522</v>
       </c>
       <c r="H12" t="n">
-        <v>101.9296557884556</v>
+        <v>101.9296557884557</v>
       </c>
       <c r="I12" t="n">
-        <v>135.4108346060429</v>
+        <v>135.410834606043</v>
       </c>
       <c r="J12" t="n">
         <v>480.3233620385267</v>
       </c>
       <c r="K12" t="n">
-        <v>515.1119360230546</v>
+        <v>515.1119360230547</v>
       </c>
       <c r="L12" t="n">
-        <v>561.8894669219343</v>
+        <v>561.8894669219344</v>
       </c>
       <c r="M12" t="n">
-        <v>616.4766391273334</v>
+        <v>616.4766391273336</v>
       </c>
       <c r="N12" t="n">
-        <v>966.6574252018928</v>
+        <v>672.5085713518093</v>
       </c>
       <c r="O12" t="n">
-        <v>1017.915696460786</v>
+        <v>723.766842610703</v>
       </c>
       <c r="P12" t="n">
         <v>1059.054978155068</v>
@@ -5184,28 +5184,28 @@
         <v>835.1834715447715</v>
       </c>
       <c r="E13" t="n">
-        <v>665.4254677955087</v>
+        <v>665.4254677955088</v>
       </c>
       <c r="F13" t="n">
-        <v>488.7184137572649</v>
+        <v>488.718413757265</v>
       </c>
       <c r="G13" t="n">
-        <v>323.3114223270949</v>
+        <v>323.311422327095</v>
       </c>
       <c r="H13" t="n">
-        <v>185.0476962541451</v>
+        <v>185.0476962541452</v>
       </c>
       <c r="I13" t="n">
-        <v>101.9296557884556</v>
+        <v>101.9296557884557</v>
       </c>
       <c r="J13" t="n">
-        <v>201.2789134675503</v>
+        <v>201.2789134675504</v>
       </c>
       <c r="K13" t="n">
-        <v>497.0216983375278</v>
+        <v>497.0216983375279</v>
       </c>
       <c r="L13" t="n">
-        <v>942.0842982359475</v>
+        <v>942.0842982359477</v>
       </c>
       <c r="M13" t="n">
         <v>1429.880591656527</v>
@@ -5223,22 +5223,22 @@
         <v>2897.645699109777</v>
       </c>
       <c r="R13" t="n">
-        <v>2884.513936075474</v>
+        <v>2897.645699109777</v>
       </c>
       <c r="S13" t="n">
-        <v>2728.484126953949</v>
+        <v>2741.615889988252</v>
       </c>
       <c r="T13" t="n">
-        <v>2483.392073856778</v>
+        <v>2496.52383689108</v>
       </c>
       <c r="U13" t="n">
-        <v>2204.969124939556</v>
+        <v>2218.100887973859</v>
       </c>
       <c r="V13" t="n">
-        <v>1918.013616809986</v>
+        <v>2110.279624345199</v>
       </c>
       <c r="W13" t="n">
-        <v>1645.987212396278</v>
+        <v>1838.25321993149</v>
       </c>
       <c r="X13" t="n">
         <v>1592.861465264903</v>
@@ -5278,7 +5278,7 @@
         <v>117.0444426702491</v>
       </c>
       <c r="J14" t="n">
-        <v>586.4738053854821</v>
+        <v>586.4738053854823</v>
       </c>
       <c r="K14" t="n">
         <v>1472.043076691206</v>
@@ -5290,40 +5290,40 @@
         <v>2681.347070268318</v>
       </c>
       <c r="N14" t="n">
-        <v>3878.924446066868</v>
+        <v>2753.193462630421</v>
       </c>
       <c r="O14" t="n">
-        <v>4926.946623620881</v>
+        <v>3425.84289420814</v>
       </c>
       <c r="P14" t="n">
-        <v>4984.84863715351</v>
+        <v>4312.054782574166</v>
       </c>
       <c r="Q14" t="n">
-        <v>5028.330637927994</v>
+        <v>4902.035569307243</v>
       </c>
       <c r="R14" t="n">
-        <v>5096.48278942278</v>
+        <v>5096.482789422781</v>
       </c>
       <c r="S14" t="n">
-        <v>5022.192671177058</v>
+        <v>5022.192671177059</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.923846025285</v>
+        <v>4803.923846025286</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.734409626258</v>
+        <v>4544.734409626259</v>
       </c>
       <c r="V14" t="n">
-        <v>4182.117459560084</v>
+        <v>4182.117459560085</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.262004971118</v>
+        <v>3777.262004971119</v>
       </c>
       <c r="X14" t="n">
-        <v>3358.119541550428</v>
+        <v>3358.119541550429</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.833417850082</v>
+        <v>2949.833417850083</v>
       </c>
     </row>
     <row r="15">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1173.623175860024</v>
+        <v>1003.865172110761</v>
       </c>
       <c r="C16" t="n">
-        <v>1001.061464343249</v>
+        <v>831.303460593986</v>
       </c>
       <c r="D16" t="n">
-        <v>835.1834715447715</v>
+        <v>665.4254677955087</v>
       </c>
       <c r="E16" t="n">
         <v>665.4254677955087</v>
@@ -5439,10 +5439,10 @@
         <v>201.2789134675503</v>
       </c>
       <c r="K16" t="n">
-        <v>497.0216983375278</v>
+        <v>497.0216983375279</v>
       </c>
       <c r="L16" t="n">
-        <v>942.0842982359475</v>
+        <v>942.0842982359476</v>
       </c>
       <c r="M16" t="n">
         <v>1429.880591656527</v>
@@ -5460,28 +5460,28 @@
         <v>2897.645699109777</v>
       </c>
       <c r="R16" t="n">
-        <v>2884.513936075474</v>
+        <v>2897.645699109777</v>
       </c>
       <c r="S16" t="n">
-        <v>2884.513936075474</v>
+        <v>2741.615889988252</v>
       </c>
       <c r="T16" t="n">
-        <v>2675.65808139199</v>
+        <v>2496.52383689108</v>
       </c>
       <c r="U16" t="n">
-        <v>2397.235132474768</v>
+        <v>2227.477128725505</v>
       </c>
       <c r="V16" t="n">
-        <v>2110.279624345199</v>
+        <v>1940.521620595936</v>
       </c>
       <c r="W16" t="n">
-        <v>1838.25321993149</v>
+        <v>1668.495216182228</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.861465264903</v>
+        <v>1423.10346151564</v>
       </c>
       <c r="Y16" t="n">
-        <v>1365.441794579011</v>
+        <v>1195.683790829748</v>
       </c>
     </row>
     <row r="17">
@@ -5515,40 +5515,40 @@
         <v>117.0444426702491</v>
       </c>
       <c r="J17" t="n">
-        <v>151.2191179325643</v>
+        <v>586.4738053854823</v>
       </c>
       <c r="K17" t="n">
-        <v>1036.788389238288</v>
+        <v>1472.043076691206</v>
       </c>
       <c r="L17" t="n">
-        <v>2175.390028463742</v>
+        <v>1535.584749663801</v>
       </c>
       <c r="M17" t="n">
-        <v>2724.206066400623</v>
+        <v>1606.287104015459</v>
       </c>
       <c r="N17" t="n">
-        <v>3921.783442199173</v>
+        <v>2377.820716654126</v>
       </c>
       <c r="O17" t="n">
-        <v>4969.805619753187</v>
+        <v>3425.84289420814</v>
       </c>
       <c r="P17" t="n">
-        <v>5027.707633285816</v>
+        <v>4312.054782574166</v>
       </c>
       <c r="Q17" t="n">
-        <v>5071.189634060299</v>
+        <v>4902.035569307243</v>
       </c>
       <c r="R17" t="n">
-        <v>5096.48278942278</v>
+        <v>5096.482789422781</v>
       </c>
       <c r="S17" t="n">
-        <v>5022.192671177058</v>
+        <v>5022.192671177059</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.923846025285</v>
+        <v>4803.923846025286</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.734409626258</v>
+        <v>4544.734409626259</v>
       </c>
       <c r="V17" t="n">
         <v>4182.117459560084</v>
@@ -5594,28 +5594,28 @@
         <v>135.4108346060429</v>
       </c>
       <c r="J18" t="n">
-        <v>155.7650370723144</v>
+        <v>480.3233620385267</v>
       </c>
       <c r="K18" t="n">
-        <v>190.5536110568423</v>
+        <v>515.1119360230546</v>
       </c>
       <c r="L18" t="n">
-        <v>237.3311419557221</v>
+        <v>561.8894669219343</v>
       </c>
       <c r="M18" t="n">
-        <v>291.9183141611212</v>
+        <v>616.4766391273334</v>
       </c>
       <c r="N18" t="n">
-        <v>1553.297804543259</v>
+        <v>672.5085713518092</v>
       </c>
       <c r="O18" t="n">
-        <v>1604.556075802153</v>
+        <v>723.7668426107028</v>
       </c>
       <c r="P18" t="n">
-        <v>1645.695357496435</v>
+        <v>1059.054978155068</v>
       </c>
       <c r="Q18" t="n">
-        <v>1673.19587783339</v>
+        <v>1627.2944371241</v>
       </c>
       <c r="R18" t="n">
         <v>1757.843292935934</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1173.623175860024</v>
+        <v>1007.745183061547</v>
       </c>
       <c r="C19" t="n">
-        <v>1001.061464343249</v>
+        <v>835.1834715447715</v>
       </c>
       <c r="D19" t="n">
         <v>835.1834715447715</v>
@@ -5676,10 +5676,10 @@
         <v>201.2789134675503</v>
       </c>
       <c r="K19" t="n">
-        <v>497.0216983375278</v>
+        <v>497.0216983375279</v>
       </c>
       <c r="L19" t="n">
-        <v>942.0842982359475</v>
+        <v>942.0842982359476</v>
       </c>
       <c r="M19" t="n">
         <v>1429.880591656527</v>
@@ -5697,28 +5697,28 @@
         <v>2897.645699109777</v>
       </c>
       <c r="R19" t="n">
-        <v>2884.513936075474</v>
+        <v>2897.645699109777</v>
       </c>
       <c r="S19" t="n">
-        <v>2728.484126953949</v>
+        <v>2741.615889988252</v>
       </c>
       <c r="T19" t="n">
-        <v>2483.392073856778</v>
+        <v>2496.52383689108</v>
       </c>
       <c r="U19" t="n">
-        <v>2397.235132474768</v>
+        <v>2218.100887973859</v>
       </c>
       <c r="V19" t="n">
-        <v>2110.279624345199</v>
+        <v>1944.401631546721</v>
       </c>
       <c r="W19" t="n">
-        <v>1838.25321993149</v>
+        <v>1672.375227133013</v>
       </c>
       <c r="X19" t="n">
-        <v>1592.861465264903</v>
+        <v>1426.983472466425</v>
       </c>
       <c r="Y19" t="n">
-        <v>1365.441794579011</v>
+        <v>1199.563801780534</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.533847365174</v>
+        <v>2523.533847365175</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.391374548597</v>
+        <v>2085.391374548598</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.481589723042</v>
+        <v>1649.481589723043</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.706844881337</v>
+        <v>1215.706844881338</v>
       </c>
       <c r="F20" t="n">
-        <v>787.8394152905449</v>
+        <v>787.8394152905457</v>
       </c>
       <c r="G20" t="n">
         <v>386.8524124632521</v>
@@ -5752,52 +5752,52 @@
         <v>117.0444426702491</v>
       </c>
       <c r="J20" t="n">
-        <v>586.4738053854821</v>
+        <v>151.2191179325643</v>
       </c>
       <c r="K20" t="n">
-        <v>1472.043076691206</v>
+        <v>202.4380972801097</v>
       </c>
       <c r="L20" t="n">
-        <v>1535.584749663801</v>
+        <v>1341.039736505564</v>
       </c>
       <c r="M20" t="n">
-        <v>2763.334939226009</v>
+        <v>2568.789926067773</v>
       </c>
       <c r="N20" t="n">
-        <v>2835.181331588112</v>
+        <v>3766.367301866323</v>
       </c>
       <c r="O20" t="n">
-        <v>3425.842894208139</v>
+        <v>4814.389479420336</v>
       </c>
       <c r="P20" t="n">
-        <v>4312.054782574165</v>
+        <v>5027.707633285817</v>
       </c>
       <c r="Q20" t="n">
-        <v>4902.035569307242</v>
+        <v>5071.1896340603</v>
       </c>
       <c r="R20" t="n">
-        <v>5096.48278942278</v>
+        <v>5096.482789422781</v>
       </c>
       <c r="S20" t="n">
-        <v>5022.192671177058</v>
+        <v>5022.192671177059</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.923846025285</v>
+        <v>4803.923846025286</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.734409626258</v>
+        <v>4544.734409626259</v>
       </c>
       <c r="V20" t="n">
-        <v>4182.117459560084</v>
+        <v>4182.117459560085</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.262004971117</v>
+        <v>3777.262004971119</v>
       </c>
       <c r="X20" t="n">
-        <v>3358.119541550428</v>
+        <v>3358.119541550429</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.833417850082</v>
+        <v>2949.833417850083</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>135.4108346060429</v>
       </c>
       <c r="J21" t="n">
-        <v>155.7650370723144</v>
+        <v>480.3233620385267</v>
       </c>
       <c r="K21" t="n">
-        <v>190.5536110568423</v>
+        <v>809.2607898731383</v>
       </c>
       <c r="L21" t="n">
-        <v>237.3311419557221</v>
+        <v>856.038320772018</v>
       </c>
       <c r="M21" t="n">
-        <v>291.9183141611212</v>
+        <v>910.6254929774171</v>
       </c>
       <c r="N21" t="n">
-        <v>1553.297804543259</v>
+        <v>966.6574252018928</v>
       </c>
       <c r="O21" t="n">
-        <v>1604.556075802153</v>
+        <v>1017.915696460786</v>
       </c>
       <c r="P21" t="n">
-        <v>1645.695357496435</v>
+        <v>1059.054978155068</v>
       </c>
       <c r="Q21" t="n">
-        <v>1744.46721521844</v>
+        <v>1627.2944371241</v>
       </c>
       <c r="R21" t="n">
         <v>1757.843292935934</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1173.623175860024</v>
+        <v>1003.865172110761</v>
       </c>
       <c r="C22" t="n">
-        <v>1001.061464343249</v>
+        <v>831.303460593986</v>
       </c>
       <c r="D22" t="n">
-        <v>835.1834715447715</v>
+        <v>665.4254677955087</v>
       </c>
       <c r="E22" t="n">
         <v>665.4254677955087</v>
@@ -5913,10 +5913,10 @@
         <v>201.2789134675503</v>
       </c>
       <c r="K22" t="n">
-        <v>497.0216983375278</v>
+        <v>497.0216983375279</v>
       </c>
       <c r="L22" t="n">
-        <v>942.0842982359475</v>
+        <v>942.0842982359476</v>
       </c>
       <c r="M22" t="n">
         <v>1429.880591656527</v>
@@ -5940,22 +5940,22 @@
         <v>2741.615889988252</v>
       </c>
       <c r="T22" t="n">
-        <v>2675.65808139199</v>
+        <v>2505.900077642727</v>
       </c>
       <c r="U22" t="n">
-        <v>2397.235132474768</v>
+        <v>2227.477128725505</v>
       </c>
       <c r="V22" t="n">
-        <v>2110.279624345199</v>
+        <v>1940.521620595936</v>
       </c>
       <c r="W22" t="n">
-        <v>1838.25321993149</v>
+        <v>1668.495216182228</v>
       </c>
       <c r="X22" t="n">
-        <v>1592.861465264903</v>
+        <v>1423.10346151564</v>
       </c>
       <c r="Y22" t="n">
-        <v>1365.441794579011</v>
+        <v>1195.683790829748</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>787.8394152905457</v>
       </c>
       <c r="G23" t="n">
-        <v>386.8524124632521</v>
+        <v>386.8524124632522</v>
       </c>
       <c r="H23" t="n">
         <v>101.9296557884556</v>
@@ -5989,37 +5989,37 @@
         <v>117.0444426702491</v>
       </c>
       <c r="J23" t="n">
-        <v>329.5841069786553</v>
+        <v>586.4738053854823</v>
       </c>
       <c r="K23" t="n">
-        <v>1215.153378284379</v>
+        <v>1472.043076691206</v>
       </c>
       <c r="L23" t="n">
-        <v>1278.695051256974</v>
+        <v>2235.271969940365</v>
       </c>
       <c r="M23" t="n">
-        <v>1349.397405608632</v>
+        <v>2305.974324292023</v>
       </c>
       <c r="N23" t="n">
-        <v>2546.974781407182</v>
+        <v>2377.820716654126</v>
       </c>
       <c r="O23" t="n">
-        <v>3594.996958961196</v>
+        <v>3425.84289420814</v>
       </c>
       <c r="P23" t="n">
-        <v>4481.208847327222</v>
+        <v>4312.054782574166</v>
       </c>
       <c r="Q23" t="n">
-        <v>5071.189634060299</v>
+        <v>4902.035569307243</v>
       </c>
       <c r="R23" t="n">
-        <v>5096.48278942278</v>
+        <v>5096.482789422781</v>
       </c>
       <c r="S23" t="n">
-        <v>5022.192671177058</v>
+        <v>5022.192671177059</v>
       </c>
       <c r="T23" t="n">
-        <v>4803.923846025285</v>
+        <v>4803.923846025286</v>
       </c>
       <c r="U23" t="n">
         <v>4544.734409626259</v>
@@ -6068,25 +6068,25 @@
         <v>135.4108346060429</v>
       </c>
       <c r="J24" t="n">
-        <v>155.7650370723144</v>
+        <v>480.3233620385267</v>
       </c>
       <c r="K24" t="n">
-        <v>190.5536110568423</v>
+        <v>809.2607898731383</v>
       </c>
       <c r="L24" t="n">
-        <v>237.3311419557221</v>
+        <v>856.038320772018</v>
       </c>
       <c r="M24" t="n">
-        <v>291.9183141611212</v>
+        <v>910.6254929774171</v>
       </c>
       <c r="N24" t="n">
-        <v>347.9502463855969</v>
+        <v>966.6574252018928</v>
       </c>
       <c r="O24" t="n">
-        <v>399.2085176444906</v>
+        <v>1017.915696460786</v>
       </c>
       <c r="P24" t="n">
-        <v>1260.070965817971</v>
+        <v>1059.054978155068</v>
       </c>
       <c r="Q24" t="n">
         <v>1627.2944371241</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>981.3571683248115</v>
+        <v>1090.505135394334</v>
       </c>
       <c r="C25" t="n">
-        <v>808.7954568080364</v>
+        <v>917.9434238775592</v>
       </c>
       <c r="D25" t="n">
-        <v>642.9174640095591</v>
+        <v>752.0654310790819</v>
       </c>
       <c r="E25" t="n">
-        <v>473.1594602602964</v>
+        <v>582.3074273298191</v>
       </c>
       <c r="F25" t="n">
-        <v>296.4524062220526</v>
+        <v>405.6003732915754</v>
       </c>
       <c r="G25" t="n">
-        <v>131.0454147918826</v>
+        <v>240.1933818614054</v>
       </c>
       <c r="H25" t="n">
         <v>101.9296557884556</v>
@@ -6171,28 +6171,28 @@
         <v>2897.645699109777</v>
       </c>
       <c r="R25" t="n">
-        <v>2884.513936075474</v>
+        <v>2897.645699109777</v>
       </c>
       <c r="S25" t="n">
-        <v>2728.484126953949</v>
+        <v>2741.615889988252</v>
       </c>
       <c r="T25" t="n">
-        <v>2483.392073856778</v>
+        <v>2496.52383689108</v>
       </c>
       <c r="U25" t="n">
-        <v>2204.969124939556</v>
+        <v>2218.100887973859</v>
       </c>
       <c r="V25" t="n">
-        <v>1918.013616809986</v>
+        <v>2027.161583879509</v>
       </c>
       <c r="W25" t="n">
-        <v>1645.987212396278</v>
+        <v>1755.135179465801</v>
       </c>
       <c r="X25" t="n">
-        <v>1400.59545772969</v>
+        <v>1509.743424799213</v>
       </c>
       <c r="Y25" t="n">
-        <v>1173.175787043799</v>
+        <v>1282.323754113321</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>787.8394152905457</v>
       </c>
       <c r="G26" t="n">
-        <v>386.8524124632521</v>
+        <v>386.8524124632522</v>
       </c>
       <c r="H26" t="n">
         <v>101.9296557884556</v>
@@ -6226,37 +6226,37 @@
         <v>117.0444426702491</v>
       </c>
       <c r="J26" t="n">
-        <v>151.2191179325643</v>
+        <v>586.4738053854823</v>
       </c>
       <c r="K26" t="n">
-        <v>1036.788389238288</v>
+        <v>1472.043076691206</v>
       </c>
       <c r="L26" t="n">
-        <v>2175.390028463742</v>
+        <v>1535.584749663801</v>
       </c>
       <c r="M26" t="n">
-        <v>3403.14021802595</v>
+        <v>1606.287104015459</v>
       </c>
       <c r="N26" t="n">
-        <v>4600.7175938245</v>
+        <v>2377.820716654126</v>
       </c>
       <c r="O26" t="n">
-        <v>4969.805619753187</v>
+        <v>3425.84289420814</v>
       </c>
       <c r="P26" t="n">
-        <v>5027.707633285816</v>
+        <v>4312.054782574166</v>
       </c>
       <c r="Q26" t="n">
-        <v>5071.189634060299</v>
+        <v>4902.035569307243</v>
       </c>
       <c r="R26" t="n">
-        <v>5096.48278942278</v>
+        <v>5096.482789422781</v>
       </c>
       <c r="S26" t="n">
-        <v>5022.192671177058</v>
+        <v>5022.192671177059</v>
       </c>
       <c r="T26" t="n">
-        <v>4803.923846025285</v>
+        <v>4803.923846025286</v>
       </c>
       <c r="U26" t="n">
         <v>4544.734409626259</v>
@@ -6302,31 +6302,31 @@
         <v>101.9296557884556</v>
       </c>
       <c r="I27" t="n">
-        <v>109.3471614455853</v>
+        <v>135.4108346060429</v>
       </c>
       <c r="J27" t="n">
-        <v>129.7013639118568</v>
+        <v>480.3233620385267</v>
       </c>
       <c r="K27" t="n">
-        <v>164.4899378963847</v>
+        <v>515.1119360230546</v>
       </c>
       <c r="L27" t="n">
-        <v>694.2268710192354</v>
+        <v>561.8894669219343</v>
       </c>
       <c r="M27" t="n">
-        <v>748.8140432246346</v>
+        <v>1451.364431609493</v>
       </c>
       <c r="N27" t="n">
-        <v>804.8459754491103</v>
+        <v>1507.396363833969</v>
       </c>
       <c r="O27" t="n">
-        <v>856.1042467080039</v>
+        <v>1558.654635092862</v>
       </c>
       <c r="P27" t="n">
-        <v>1716.966694881484</v>
+        <v>1599.793916787144</v>
       </c>
       <c r="Q27" t="n">
-        <v>1744.46721521844</v>
+        <v>1627.2944371241</v>
       </c>
       <c r="R27" t="n">
         <v>1757.843292935934</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>981.3571683248115</v>
+        <v>1173.623175860024</v>
       </c>
       <c r="C28" t="n">
-        <v>808.7954568080364</v>
+        <v>1001.061464343249</v>
       </c>
       <c r="D28" t="n">
-        <v>642.9174640095591</v>
+        <v>835.1834715447715</v>
       </c>
       <c r="E28" t="n">
-        <v>473.1594602602964</v>
+        <v>665.4254677955087</v>
       </c>
       <c r="F28" t="n">
-        <v>350.4546876843151</v>
+        <v>488.7184137572649</v>
       </c>
       <c r="G28" t="n">
-        <v>185.0476962541451</v>
+        <v>323.3114223270949</v>
       </c>
       <c r="H28" t="n">
         <v>185.0476962541451</v>
@@ -6408,28 +6408,28 @@
         <v>2897.645699109777</v>
       </c>
       <c r="R28" t="n">
-        <v>2884.513936075474</v>
+        <v>2897.645699109777</v>
       </c>
       <c r="S28" t="n">
-        <v>2728.484126953949</v>
+        <v>2741.615889988252</v>
       </c>
       <c r="T28" t="n">
-        <v>2483.392073856778</v>
+        <v>2496.52383689108</v>
       </c>
       <c r="U28" t="n">
-        <v>2204.969124939556</v>
+        <v>2218.100887973859</v>
       </c>
       <c r="V28" t="n">
-        <v>1918.013616809986</v>
+        <v>1931.145379844289</v>
       </c>
       <c r="W28" t="n">
-        <v>1645.987212396278</v>
+        <v>1659.118975430581</v>
       </c>
       <c r="X28" t="n">
-        <v>1400.59545772969</v>
+        <v>1413.727220763993</v>
       </c>
       <c r="Y28" t="n">
-        <v>1173.175787043799</v>
+        <v>1186.307550078101</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2523.533847365174</v>
+        <v>2523.533847365175</v>
       </c>
       <c r="C29" t="n">
-        <v>2085.391374548597</v>
+        <v>2085.391374548598</v>
       </c>
       <c r="D29" t="n">
-        <v>1649.481589723042</v>
+        <v>1649.481589723043</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.706844881337</v>
+        <v>1215.706844881338</v>
       </c>
       <c r="F29" t="n">
-        <v>787.8394152905448</v>
+        <v>787.8394152905457</v>
       </c>
       <c r="G29" t="n">
         <v>386.8524124632521</v>
@@ -6463,52 +6463,52 @@
         <v>117.0444426702491</v>
       </c>
       <c r="J29" t="n">
-        <v>151.2191179325643</v>
+        <v>586.4738053854823</v>
       </c>
       <c r="K29" t="n">
-        <v>357.8542376129603</v>
+        <v>1472.043076691206</v>
       </c>
       <c r="L29" t="n">
-        <v>1496.455876838415</v>
+        <v>1535.584749663801</v>
       </c>
       <c r="M29" t="n">
-        <v>2724.206066400623</v>
+        <v>1606.287104015459</v>
       </c>
       <c r="N29" t="n">
-        <v>3921.783442199173</v>
+        <v>2377.820716654126</v>
       </c>
       <c r="O29" t="n">
-        <v>4969.805619753187</v>
+        <v>3425.84289420814</v>
       </c>
       <c r="P29" t="n">
-        <v>5027.707633285816</v>
+        <v>4312.054782574166</v>
       </c>
       <c r="Q29" t="n">
-        <v>5071.189634060299</v>
+        <v>4902.035569307243</v>
       </c>
       <c r="R29" t="n">
-        <v>5096.48278942278</v>
+        <v>5096.482789422781</v>
       </c>
       <c r="S29" t="n">
-        <v>5022.192671177058</v>
+        <v>5022.192671177059</v>
       </c>
       <c r="T29" t="n">
-        <v>4803.923846025285</v>
+        <v>4803.923846025286</v>
       </c>
       <c r="U29" t="n">
-        <v>4544.734409626258</v>
+        <v>4544.734409626259</v>
       </c>
       <c r="V29" t="n">
-        <v>4182.117459560084</v>
+        <v>4182.117459560085</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.262004971118</v>
+        <v>3777.262004971119</v>
       </c>
       <c r="X29" t="n">
-        <v>3358.119541550428</v>
+        <v>3358.119541550429</v>
       </c>
       <c r="Y29" t="n">
-        <v>2949.833417850082</v>
+        <v>2949.833417850083</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3944.398157152746</v>
+        <v>605.7586606659</v>
       </c>
       <c r="C30" t="n">
-        <v>3837.941695989388</v>
+        <v>499.3021995025423</v>
       </c>
       <c r="D30" t="n">
-        <v>3742.851407135941</v>
+        <v>404.2119106490956</v>
       </c>
       <c r="E30" t="n">
-        <v>3648.730992462895</v>
+        <v>310.0914959760493</v>
       </c>
       <c r="F30" t="n">
-        <v>3565.347154079057</v>
+        <v>226.7076575922109</v>
       </c>
       <c r="G30" t="n">
-        <v>3480.181876997898</v>
+        <v>141.5423805110521</v>
       </c>
       <c r="H30" t="n">
-        <v>3440.569152275301</v>
+        <v>101.9296557884556</v>
       </c>
       <c r="I30" t="n">
-        <v>3474.050331092888</v>
+        <v>109.3471614455853</v>
       </c>
       <c r="J30" t="n">
-        <v>3818.962858525372</v>
+        <v>129.7013639118568</v>
       </c>
       <c r="K30" t="n">
-        <v>4147.900286359985</v>
+        <v>164.4899378963847</v>
       </c>
       <c r="L30" t="n">
-        <v>4194.677817258865</v>
+        <v>211.2674687952645</v>
       </c>
       <c r="M30" t="n">
-        <v>4249.264989464265</v>
+        <v>265.8546410006636</v>
       </c>
       <c r="N30" t="n">
-        <v>4305.29692168874</v>
+        <v>610.7675321100069</v>
       </c>
       <c r="O30" t="n">
-        <v>4356.555192947634</v>
+        <v>1675.827413187202</v>
       </c>
       <c r="P30" t="n">
-        <v>4397.694474641915</v>
+        <v>1716.966694881484</v>
       </c>
       <c r="Q30" t="n">
-        <v>4965.933933610947</v>
+        <v>1744.46721521844</v>
       </c>
       <c r="R30" t="n">
-        <v>5096.48278942278</v>
+        <v>1757.843292935934</v>
       </c>
       <c r="S30" t="n">
-        <v>5037.110275485215</v>
+        <v>1698.470778998369</v>
       </c>
       <c r="T30" t="n">
-        <v>4907.817631060519</v>
+        <v>1569.178134573673</v>
       </c>
       <c r="U30" t="n">
-        <v>4731.495545419215</v>
+        <v>1392.856048932369</v>
       </c>
       <c r="V30" t="n">
-        <v>4532.378027481214</v>
+        <v>1193.738530994368</v>
       </c>
       <c r="W30" t="n">
-        <v>4347.055273214408</v>
+        <v>1008.415776727562</v>
       </c>
       <c r="X30" t="n">
-        <v>4192.187837453288</v>
+        <v>853.5483409664424</v>
       </c>
       <c r="Y30" t="n">
-        <v>4065.702058232509</v>
+        <v>727.0625617456632</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1173.623175860024</v>
+        <v>1035.359449787074</v>
       </c>
       <c r="C31" t="n">
-        <v>1001.061464343249</v>
+        <v>862.797738270299</v>
       </c>
       <c r="D31" t="n">
-        <v>835.1834715447715</v>
+        <v>696.9197454718217</v>
       </c>
       <c r="E31" t="n">
-        <v>665.4254677955087</v>
+        <v>527.1617417225589</v>
       </c>
       <c r="F31" t="n">
-        <v>488.7184137572649</v>
+        <v>350.4546876843151</v>
       </c>
       <c r="G31" t="n">
-        <v>323.3114223270949</v>
+        <v>185.0476962541451</v>
       </c>
       <c r="H31" t="n">
         <v>185.0476962541451</v>
@@ -6624,10 +6624,10 @@
         <v>201.2789134675503</v>
       </c>
       <c r="K31" t="n">
-        <v>497.0216983375278</v>
+        <v>497.0216983375279</v>
       </c>
       <c r="L31" t="n">
-        <v>942.0842982359475</v>
+        <v>942.0842982359476</v>
       </c>
       <c r="M31" t="n">
         <v>1429.880591656527</v>
@@ -6645,28 +6645,28 @@
         <v>2897.645699109777</v>
       </c>
       <c r="R31" t="n">
-        <v>2884.513936075474</v>
+        <v>2897.645699109777</v>
       </c>
       <c r="S31" t="n">
-        <v>2728.484126953949</v>
+        <v>2741.615889988252</v>
       </c>
       <c r="T31" t="n">
-        <v>2675.65808139199</v>
+        <v>2496.52383689108</v>
       </c>
       <c r="U31" t="n">
-        <v>2397.235132474768</v>
+        <v>2218.100887973859</v>
       </c>
       <c r="V31" t="n">
-        <v>2110.279624345199</v>
+        <v>1931.145379844289</v>
       </c>
       <c r="W31" t="n">
-        <v>1838.25321993149</v>
+        <v>1699.989493858541</v>
       </c>
       <c r="X31" t="n">
-        <v>1592.861465264903</v>
+        <v>1454.597739191953</v>
       </c>
       <c r="Y31" t="n">
-        <v>1365.441794579011</v>
+        <v>1227.178068506061</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2523.533847365174</v>
+        <v>2523.533847365175</v>
       </c>
       <c r="C32" t="n">
-        <v>2085.391374548597</v>
+        <v>2085.391374548598</v>
       </c>
       <c r="D32" t="n">
         <v>1649.481589723042</v>
@@ -6688,7 +6688,7 @@
         <v>1215.706844881337</v>
       </c>
       <c r="F32" t="n">
-        <v>787.8394152905448</v>
+        <v>787.8394152905453</v>
       </c>
       <c r="G32" t="n">
         <v>386.8524124632521</v>
@@ -6709,7 +6709,7 @@
         <v>1535.584749663801</v>
       </c>
       <c r="M32" t="n">
-        <v>1606.287104015458</v>
+        <v>1606.287104015459</v>
       </c>
       <c r="N32" t="n">
         <v>2377.820716654126</v>
@@ -6733,16 +6733,16 @@
         <v>4803.923846025285</v>
       </c>
       <c r="U32" t="n">
-        <v>4544.734409626258</v>
+        <v>4544.734409626259</v>
       </c>
       <c r="V32" t="n">
-        <v>4182.117459560084</v>
+        <v>4182.117459560085</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.262004971118</v>
+        <v>3777.262004971119</v>
       </c>
       <c r="X32" t="n">
-        <v>3358.119541550428</v>
+        <v>3358.119541550429</v>
       </c>
       <c r="Y32" t="n">
         <v>2949.833417850082</v>
@@ -6779,28 +6779,28 @@
         <v>135.4108346060429</v>
       </c>
       <c r="J33" t="n">
-        <v>155.7650370723144</v>
+        <v>480.3233620385267</v>
       </c>
       <c r="K33" t="n">
-        <v>871.2871311272196</v>
+        <v>809.2607898731383</v>
       </c>
       <c r="L33" t="n">
-        <v>918.0646620260993</v>
+        <v>856.038320772018</v>
       </c>
       <c r="M33" t="n">
-        <v>972.6518342314984</v>
+        <v>910.6254929774171</v>
       </c>
       <c r="N33" t="n">
-        <v>1028.683766455974</v>
+        <v>966.6574252018928</v>
       </c>
       <c r="O33" t="n">
-        <v>1079.942037714867</v>
+        <v>1017.915696460786</v>
       </c>
       <c r="P33" t="n">
-        <v>1121.081319409149</v>
+        <v>1059.054978155068</v>
       </c>
       <c r="Q33" t="n">
-        <v>1689.320778378181</v>
+        <v>1627.2944371241</v>
       </c>
       <c r="R33" t="n">
         <v>1757.843292935934</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1173.623175860024</v>
+        <v>1150.51874048064</v>
       </c>
       <c r="C34" t="n">
-        <v>1001.061464343249</v>
+        <v>977.9570289638649</v>
       </c>
       <c r="D34" t="n">
-        <v>835.1834715447715</v>
+        <v>812.0790361653876</v>
       </c>
       <c r="E34" t="n">
-        <v>665.4254677955087</v>
+        <v>642.3210324161248</v>
       </c>
       <c r="F34" t="n">
-        <v>488.7184137572649</v>
+        <v>465.613978377881</v>
       </c>
       <c r="G34" t="n">
-        <v>323.3114223270949</v>
+        <v>300.2069869477111</v>
       </c>
       <c r="H34" t="n">
-        <v>185.0476962541451</v>
+        <v>161.9432608747613</v>
       </c>
       <c r="I34" t="n">
         <v>101.9296557884556</v>
@@ -6882,28 +6882,28 @@
         <v>2897.645699109777</v>
       </c>
       <c r="R34" t="n">
-        <v>2884.513936075474</v>
+        <v>2897.645699109777</v>
       </c>
       <c r="S34" t="n">
-        <v>2728.484126953949</v>
+        <v>2897.645699109777</v>
       </c>
       <c r="T34" t="n">
-        <v>2483.392073856778</v>
+        <v>2652.553646012606</v>
       </c>
       <c r="U34" t="n">
-        <v>2204.969124939556</v>
+        <v>2374.130697095384</v>
       </c>
       <c r="V34" t="n">
-        <v>1918.013616809986</v>
+        <v>2087.175188965815</v>
       </c>
       <c r="W34" t="n">
-        <v>1645.987212396278</v>
+        <v>1815.148784552106</v>
       </c>
       <c r="X34" t="n">
-        <v>1400.59545772969</v>
+        <v>1569.757029885519</v>
       </c>
       <c r="Y34" t="n">
-        <v>1365.441794579011</v>
+        <v>1342.337359199627</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2523.533847365175</v>
+        <v>2523.533847365174</v>
       </c>
       <c r="C35" t="n">
-        <v>2085.391374548598</v>
+        <v>2085.391374548597</v>
       </c>
       <c r="D35" t="n">
         <v>1649.481589723042</v>
@@ -6940,13 +6940,13 @@
         <v>586.4738053854821</v>
       </c>
       <c r="K35" t="n">
-        <v>1045.999313531322</v>
+        <v>1472.043076691206</v>
       </c>
       <c r="L35" t="n">
-        <v>1109.540986503918</v>
+        <v>2235.271969940364</v>
       </c>
       <c r="M35" t="n">
-        <v>1180.243340855575</v>
+        <v>2305.974324292022</v>
       </c>
       <c r="N35" t="n">
         <v>2377.820716654126</v>
@@ -6970,16 +6970,16 @@
         <v>4803.923846025285</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.734409626259</v>
+        <v>4544.734409626258</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.117459560085</v>
+        <v>4182.117459560084</v>
       </c>
       <c r="W35" t="n">
         <v>3777.262004971118</v>
       </c>
       <c r="X35" t="n">
-        <v>3358.119541550429</v>
+        <v>3358.119541550428</v>
       </c>
       <c r="Y35" t="n">
         <v>2949.833417850082</v>
@@ -7013,28 +7013,28 @@
         <v>101.9296557884556</v>
       </c>
       <c r="I36" t="n">
-        <v>109.3471614455853</v>
+        <v>135.4108346060429</v>
       </c>
       <c r="J36" t="n">
-        <v>129.7013639118568</v>
+        <v>480.3233620385267</v>
       </c>
       <c r="K36" t="n">
-        <v>164.4899378963847</v>
+        <v>515.1119360230546</v>
       </c>
       <c r="L36" t="n">
-        <v>211.2674687952644</v>
+        <v>561.8894669219343</v>
       </c>
       <c r="M36" t="n">
-        <v>1451.364431609493</v>
+        <v>616.4766391273334</v>
       </c>
       <c r="N36" t="n">
-        <v>1507.396363833969</v>
+        <v>672.5085713518092</v>
       </c>
       <c r="O36" t="n">
-        <v>1558.654635092862</v>
+        <v>723.7668426107028</v>
       </c>
       <c r="P36" t="n">
-        <v>1599.793916787144</v>
+        <v>1059.054978155068</v>
       </c>
       <c r="Q36" t="n">
         <v>1627.2944371241</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>996.9161218217801</v>
+        <v>1007.745183061547</v>
       </c>
       <c r="C37" t="n">
-        <v>824.354410305005</v>
+        <v>835.1834715447715</v>
       </c>
       <c r="D37" t="n">
-        <v>658.4764175065277</v>
+        <v>835.1834715447715</v>
       </c>
       <c r="E37" t="n">
-        <v>488.7184137572649</v>
+        <v>665.4254677955087</v>
       </c>
       <c r="F37" t="n">
         <v>488.7184137572649</v>
@@ -7122,25 +7122,25 @@
         <v>2897.645699109777</v>
       </c>
       <c r="S37" t="n">
-        <v>2741.615889988252</v>
+        <v>2754.872141690684</v>
       </c>
       <c r="T37" t="n">
-        <v>2496.52383689108</v>
+        <v>2509.780088593513</v>
       </c>
       <c r="U37" t="n">
-        <v>2218.100887973859</v>
+        <v>2231.357139676291</v>
       </c>
       <c r="V37" t="n">
-        <v>1931.145379844289</v>
+        <v>1944.401631546721</v>
       </c>
       <c r="W37" t="n">
-        <v>1659.118975430581</v>
+        <v>1672.375227133013</v>
       </c>
       <c r="X37" t="n">
-        <v>1416.154411226659</v>
+        <v>1426.983472466425</v>
       </c>
       <c r="Y37" t="n">
-        <v>1188.734740540767</v>
+        <v>1199.563801780534</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1215.706844881337</v>
       </c>
       <c r="F38" t="n">
-        <v>787.8394152905448</v>
+        <v>787.8394152905449</v>
       </c>
       <c r="G38" t="n">
         <v>386.8524124632521</v>
@@ -7177,13 +7177,13 @@
         <v>586.4738053854821</v>
       </c>
       <c r="K38" t="n">
-        <v>1045.999313531322</v>
+        <v>1472.043076691206</v>
       </c>
       <c r="L38" t="n">
-        <v>1109.540986503918</v>
+        <v>1535.584749663801</v>
       </c>
       <c r="M38" t="n">
-        <v>1180.243340855575</v>
+        <v>1606.287104015459</v>
       </c>
       <c r="N38" t="n">
         <v>2377.820716654126</v>
@@ -7250,10 +7250,10 @@
         <v>101.9296557884556</v>
       </c>
       <c r="I39" t="n">
-        <v>109.3471614455853</v>
+        <v>135.4108346060429</v>
       </c>
       <c r="J39" t="n">
-        <v>454.2596888780691</v>
+        <v>480.3233620385267</v>
       </c>
       <c r="K39" t="n">
         <v>809.2607898731383</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1007.745183061547</v>
+        <v>996.9161218217801</v>
       </c>
       <c r="C40" t="n">
-        <v>835.1834715447715</v>
+        <v>824.354410305005</v>
       </c>
       <c r="D40" t="n">
-        <v>835.1834715447715</v>
+        <v>658.4764175065277</v>
       </c>
       <c r="E40" t="n">
-        <v>665.4254677955087</v>
+        <v>488.7184137572649</v>
       </c>
       <c r="F40" t="n">
         <v>488.7184137572649</v>
@@ -7356,28 +7356,28 @@
         <v>2897.645699109777</v>
       </c>
       <c r="R40" t="n">
-        <v>2884.513936075474</v>
+        <v>2897.645699109777</v>
       </c>
       <c r="S40" t="n">
-        <v>2728.484126953949</v>
+        <v>2741.615889988252</v>
       </c>
       <c r="T40" t="n">
-        <v>2483.392073856778</v>
+        <v>2496.52383689108</v>
       </c>
       <c r="U40" t="n">
-        <v>2204.969124939556</v>
+        <v>2220.528078436525</v>
       </c>
       <c r="V40" t="n">
-        <v>1944.401631546721</v>
+        <v>1933.572570306955</v>
       </c>
       <c r="W40" t="n">
-        <v>1672.375227133013</v>
+        <v>1661.546165893247</v>
       </c>
       <c r="X40" t="n">
-        <v>1426.983472466425</v>
+        <v>1416.154411226659</v>
       </c>
       <c r="Y40" t="n">
-        <v>1199.563801780534</v>
+        <v>1188.734740540767</v>
       </c>
     </row>
     <row r="41">
@@ -7411,22 +7411,22 @@
         <v>117.0444426702491</v>
       </c>
       <c r="J41" t="n">
-        <v>571.16207412407</v>
+        <v>586.4738053854821</v>
       </c>
       <c r="K41" t="n">
-        <v>622.3810534716155</v>
+        <v>637.6927847330276</v>
       </c>
       <c r="L41" t="n">
-        <v>1760.98269269707</v>
+        <v>1776.294423958482</v>
       </c>
       <c r="M41" t="n">
-        <v>2988.732882259279</v>
+        <v>2160.423007425882</v>
       </c>
       <c r="N41" t="n">
-        <v>4186.310258057829</v>
+        <v>3358.000383224432</v>
       </c>
       <c r="O41" t="n">
-        <v>4254.152769041536</v>
+        <v>3425.842894208139</v>
       </c>
       <c r="P41" t="n">
         <v>4312.054782574165</v>
@@ -7441,19 +7441,19 @@
         <v>5022.192671177058</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.923846025286</v>
+        <v>4803.923846025285</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.734409626259</v>
+        <v>4544.734409626258</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.117459560085</v>
+        <v>4182.117459560084</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.262004971119</v>
+        <v>3777.262004971118</v>
       </c>
       <c r="X41" t="n">
-        <v>3358.119541550429</v>
+        <v>3358.119541550428</v>
       </c>
       <c r="Y41" t="n">
         <v>2949.833417850082</v>
@@ -7487,10 +7487,10 @@
         <v>101.9296557884556</v>
       </c>
       <c r="I42" t="n">
-        <v>109.3471614455853</v>
+        <v>135.4108346060429</v>
       </c>
       <c r="J42" t="n">
-        <v>454.2596888780691</v>
+        <v>480.3233620385267</v>
       </c>
       <c r="K42" t="n">
         <v>809.2607898731383</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.505135394334</v>
+        <v>996.9161218217801</v>
       </c>
       <c r="C43" t="n">
-        <v>917.9434238775592</v>
+        <v>824.354410305005</v>
       </c>
       <c r="D43" t="n">
-        <v>752.0654310790819</v>
+        <v>658.4764175065277</v>
       </c>
       <c r="E43" t="n">
-        <v>582.3074273298191</v>
+        <v>488.7184137572649</v>
       </c>
       <c r="F43" t="n">
-        <v>405.6003732915754</v>
+        <v>488.7184137572649</v>
       </c>
       <c r="G43" t="n">
-        <v>240.1933818614054</v>
+        <v>323.3114223270949</v>
       </c>
       <c r="H43" t="n">
-        <v>101.9296557884556</v>
+        <v>185.0476962541451</v>
       </c>
       <c r="I43" t="n">
         <v>101.9296557884556</v>
@@ -7596,25 +7596,25 @@
         <v>2897.645699109777</v>
       </c>
       <c r="S43" t="n">
-        <v>2837.632094023471</v>
+        <v>2741.615889988252</v>
       </c>
       <c r="T43" t="n">
-        <v>2592.5400409263</v>
+        <v>2496.52383689108</v>
       </c>
       <c r="U43" t="n">
-        <v>2314.117092009079</v>
+        <v>2218.100887973859</v>
       </c>
       <c r="V43" t="n">
-        <v>2027.161583879509</v>
+        <v>1931.145379844289</v>
       </c>
       <c r="W43" t="n">
-        <v>1755.135179465801</v>
+        <v>1659.118975430581</v>
       </c>
       <c r="X43" t="n">
-        <v>1509.743424799213</v>
+        <v>1416.154411226659</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.323754113321</v>
+        <v>1188.734740540767</v>
       </c>
     </row>
     <row r="44">
@@ -7654,13 +7654,13 @@
         <v>1472.043076691206</v>
       </c>
       <c r="L44" t="n">
-        <v>2235.271969940364</v>
+        <v>1535.584749663801</v>
       </c>
       <c r="M44" t="n">
-        <v>2305.974324292022</v>
+        <v>1606.287104015459</v>
       </c>
       <c r="N44" t="n">
-        <v>2377.820716654126</v>
+        <v>2803.864479814009</v>
       </c>
       <c r="O44" t="n">
         <v>3425.842894208139</v>
@@ -7733,16 +7733,16 @@
         <v>515.1119360230546</v>
       </c>
       <c r="L45" t="n">
-        <v>856.038320772018</v>
+        <v>561.8894669219343</v>
       </c>
       <c r="M45" t="n">
-        <v>910.6254929774171</v>
+        <v>616.4766391273334</v>
       </c>
       <c r="N45" t="n">
-        <v>966.6574252018928</v>
+        <v>672.5085713518092</v>
       </c>
       <c r="O45" t="n">
-        <v>1017.915696460786</v>
+        <v>723.7668426107028</v>
       </c>
       <c r="P45" t="n">
         <v>1059.054978155068</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1173.623175860024</v>
+        <v>996.9161218217801</v>
       </c>
       <c r="C46" t="n">
-        <v>1001.061464343249</v>
+        <v>824.354410305005</v>
       </c>
       <c r="D46" t="n">
-        <v>835.1834715447715</v>
+        <v>658.4764175065277</v>
       </c>
       <c r="E46" t="n">
-        <v>665.4254677955087</v>
+        <v>488.7184137572649</v>
       </c>
       <c r="F46" t="n">
         <v>488.7184137572649</v>
@@ -7848,10 +7848,10 @@
         <v>1659.118975430581</v>
       </c>
       <c r="X46" t="n">
-        <v>1592.861465264903</v>
+        <v>1416.154411226659</v>
       </c>
       <c r="Y46" t="n">
-        <v>1365.441794579011</v>
+        <v>1188.734740540767</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>41.31500304752736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="K5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>41.31500304752734</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R5" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>13.3187674087812</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="K7" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>156.9860003362155</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>156.9860003362128</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>297.1200543940239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.1200543940237</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>610.9160814080929</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>43.2919152851573</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>482.9431147325495</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>706.7547679561258</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1217.522786017841</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>297.1200543940238</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>71.99124988388826</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>528.100052157899</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>156.9860003362137</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>297.1200543940239</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1217.522786017841</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.99124988388826</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>180.1666556021121</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>706.7547679561255</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>297.1200543940239</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>343.1544959284579</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>706.7547679561258</v>
       </c>
       <c r="O26" t="n">
-        <v>304.2883989343227</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>487.8377800242131</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>843.3210025072319</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>156.9860003362128</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>706.7547679561258</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>297.1200543940254</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>291.7989483685531</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>706.7547679561253</v>
+        <v>706.7547679561249</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10427,10 +10427,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>297.1200543940239</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>55.70347155581703</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>412.4308371699946</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>706.7547679561246</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.484636978616</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>297.1200543940238</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10825,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>412.4308371699946</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>706.7547679561249</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>323.4469969803447</v>
+        <v>297.1200543940239</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>424.1848042338443</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>316.5921506219618</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>323.4469969803447</v>
+        <v>297.1200543940239</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11302,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>706.7547679561249</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>559.7332357681044</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>297.1200543940239</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>297.1200543940238</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>13.00044540396</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>177.3429020559006</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>190.3433474598602</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>13.00044540396</v>
       </c>
       <c r="S16" t="n">
-        <v>154.4695110303103</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>35.87383642954981</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>9.282478344130141</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>13.00044540396</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>190.3433474598603</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>13.12368918540778</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>177.3429020559002</v>
+        <v>9.2824783441298</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>108.0564873988276</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>82.28686006103263</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>13.00044540396</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>95.05604199486774</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>177.3429020559003</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>53.46225864763987</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>136.8810888122203</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>13.00044540396</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>136.8810888122203</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>13.00044540396</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>190.34334745986</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>40.46181324368021</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>22.87339102559002</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>13.00044540396</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>154.4695110303103</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.3433474598602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>13.00044540396</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>13.1236891854079</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.402918558039119</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>13.00044540396</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2.402918558039232</v>
       </c>
       <c r="V40" t="n">
-        <v>26.12413458936754</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>82.28686006103263</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>13.00044540396</v>
       </c>
       <c r="S43" t="n">
-        <v>95.0560419948672</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>2.402918558039119</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>177.3429020559004</v>
+        <v>2.402918558039119</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610563.106334624</v>
+        <v>610563.1063346239</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>610563.106334624</v>
+        <v>610563.1063346239</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>610563.106334624</v>
+        <v>610563.1063346239</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>610563.106334624</v>
+        <v>610563.1063346239</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>610563.106334624</v>
+        <v>610563.1063346239</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068474</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068474</v>
       </c>
       <c r="D2" t="n">
         <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
+        <v>451842.2176186666</v>
+      </c>
+      <c r="F2" t="n">
+        <v>451842.2176186664</v>
+      </c>
+      <c r="G2" t="n">
+        <v>451842.2176186665</v>
+      </c>
+      <c r="H2" t="n">
+        <v>451842.2176186665</v>
+      </c>
+      <c r="I2" t="n">
+        <v>451842.2176186664</v>
+      </c>
+      <c r="J2" t="n">
+        <v>451842.2176186664</v>
+      </c>
+      <c r="K2" t="n">
         <v>451842.2176186663</v>
       </c>
-      <c r="F2" t="n">
-        <v>451842.2176186662</v>
-      </c>
-      <c r="G2" t="n">
-        <v>451842.2176186662</v>
-      </c>
-      <c r="H2" t="n">
-        <v>451842.2176186662</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>451842.2176186663</v>
-      </c>
-      <c r="J2" t="n">
-        <v>451842.2176186663</v>
-      </c>
-      <c r="K2" t="n">
-        <v>451842.2176186665</v>
-      </c>
-      <c r="L2" t="n">
-        <v>451842.2176186664</v>
       </c>
       <c r="M2" t="n">
         <v>451842.2176186663</v>
@@ -26355,7 +26355,7 @@
         <v>451842.2176186664</v>
       </c>
       <c r="P2" t="n">
-        <v>451842.2176186662</v>
+        <v>451842.2176186663</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>118965.3428248166</v>
       </c>
       <c r="E3" t="n">
-        <v>335020.6207325071</v>
+        <v>335020.6207325073</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96929.00743931899</v>
+        <v>96929.00743931893</v>
       </c>
       <c r="M3" t="n">
-        <v>211779.7493863885</v>
+        <v>211779.7493863887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>132952.3504242864</v>
       </c>
       <c r="I4" t="n">
-        <v>132952.3504242863</v>
+        <v>132952.3504242864</v>
       </c>
       <c r="J4" t="n">
         <v>132952.3504242864</v>
@@ -26450,16 +26450,16 @@
         <v>132952.3504242864</v>
       </c>
       <c r="M4" t="n">
+        <v>132952.3504242863</v>
+      </c>
+      <c r="N4" t="n">
         <v>132952.3504242864</v>
-      </c>
-      <c r="N4" t="n">
-        <v>132952.3504242863</v>
       </c>
       <c r="O4" t="n">
         <v>132952.3504242864</v>
       </c>
       <c r="P4" t="n">
-        <v>132952.3504242863</v>
+        <v>132952.3504242864</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>79672.08071055551</v>
+        <v>79672.08071055556</v>
       </c>
       <c r="F5" t="n">
-        <v>79672.08071055551</v>
+        <v>79672.08071055553</v>
       </c>
       <c r="G5" t="n">
-        <v>79672.08071055551</v>
+        <v>79672.08071055553</v>
       </c>
       <c r="H5" t="n">
-        <v>79672.08071055551</v>
+        <v>79672.08071055553</v>
       </c>
       <c r="I5" t="n">
-        <v>79672.08071055551</v>
+        <v>79672.08071055553</v>
       </c>
       <c r="J5" t="n">
-        <v>79672.08071055551</v>
+        <v>79672.08071055553</v>
       </c>
       <c r="K5" t="n">
-        <v>79672.08071055551</v>
+        <v>79672.08071055553</v>
       </c>
       <c r="L5" t="n">
         <v>79672.08071055551</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106481.8874549804</v>
+        <v>106481.8874549806</v>
       </c>
       <c r="C6" t="n">
-        <v>120327.4952212769</v>
+        <v>120327.4952212771</v>
       </c>
       <c r="D6" t="n">
-        <v>40713.38512618572</v>
+        <v>40713.38512618573</v>
       </c>
       <c r="E6" t="n">
-        <v>-95802.83424868266</v>
+        <v>-95814.25484953029</v>
       </c>
       <c r="F6" t="n">
-        <v>239217.7864838243</v>
+        <v>239206.365882977</v>
       </c>
       <c r="G6" t="n">
-        <v>239217.7864838243</v>
+        <v>239206.3658829769</v>
       </c>
       <c r="H6" t="n">
-        <v>239217.7864838244</v>
+        <v>239206.3658829769</v>
       </c>
       <c r="I6" t="n">
-        <v>239217.7864838245</v>
+        <v>239206.3658829769</v>
       </c>
       <c r="J6" t="n">
-        <v>228407.9638264572</v>
+        <v>228396.5432256096</v>
       </c>
       <c r="K6" t="n">
-        <v>239217.7864838245</v>
+        <v>239206.3658829768</v>
       </c>
       <c r="L6" t="n">
-        <v>142288.7790445055</v>
+        <v>142277.3584436579</v>
       </c>
       <c r="M6" t="n">
-        <v>27438.03709743591</v>
+        <v>27426.61649658817</v>
       </c>
       <c r="N6" t="n">
-        <v>239217.7864838245</v>
+        <v>239206.3658829768</v>
       </c>
       <c r="O6" t="n">
-        <v>239217.7864838245</v>
+        <v>239206.3658829769</v>
       </c>
       <c r="P6" t="n">
-        <v>239217.7864838244</v>
+        <v>239206.3658829768</v>
       </c>
     </row>
   </sheetData>
@@ -26792,13 +26792,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="D4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E4" t="n">
-        <v>1274.120697355695</v>
+        <v>1274.120697355696</v>
       </c>
       <c r="F4" t="n">
         <v>1274.120697355695</v>
@@ -27020,7 +27020,7 @@
         <v>382.980854472577</v>
       </c>
       <c r="E4" t="n">
-        <v>849.8248398355906</v>
+        <v>849.8248398355913</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>382.980854472577</v>
+        <v>382.9808544725768</v>
       </c>
       <c r="M4" t="n">
-        <v>849.8248398355904</v>
+        <v>849.8248398355913</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>382.980854472577</v>
       </c>
       <c r="M4" t="n">
-        <v>849.8248398355906</v>
+        <v>849.8248398355913</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27460,19 +27460,19 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517241</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D3" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>48.14098415221586</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -27520,7 +27520,7 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X3" t="n">
         <v>153.3187614035088</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>133.624980450334</v>
@@ -27590,13 +27590,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>202.1056489098019</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>239.2584160551636</v>
       </c>
       <c r="V4" t="n">
-        <v>247.6956983640117</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738494</v>
       </c>
       <c r="E6" t="n">
         <v>93.17921052631581</v>
@@ -27748,22 +27748,22 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
-        <v>133.258178482504</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>160.7360880743586</v>
       </c>
       <c r="W6" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y6" t="n">
-        <v>88.83066674430933</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27788,10 +27788,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>127.5451075401685</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H7" t="n">
-        <v>97.18814951900188</v>
+        <v>102.1128978822672</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27836,10 +27836,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>187.4906859516496</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27915,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>7.567601918452397</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28025,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>150.0830022581258</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>2.713330253327456</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31755,31 +31755,31 @@
         <v>0.406720263948966</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165323903167349</v>
+        <v>4.16532390316735</v>
       </c>
       <c r="I11" t="n">
         <v>15.68008297589253</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51987400233858</v>
+        <v>34.51987400233859</v>
       </c>
       <c r="K11" t="n">
         <v>51.73634277529833</v>
       </c>
       <c r="L11" t="n">
-        <v>64.1835080531265</v>
+        <v>64.18350805312652</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712894</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57211349707393</v>
+        <v>72.57211349707394</v>
       </c>
       <c r="O11" t="n">
         <v>68.5277888724314</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48688235619129</v>
+        <v>58.4868823561913</v>
       </c>
       <c r="Q11" t="n">
         <v>43.92121290351893</v>
@@ -31794,7 +31794,7 @@
         <v>1.7804179554366</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253762111591727</v>
+        <v>0.03253762111591728</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31849,28 +31849,28 @@
         <v>47.25003121098965</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13855778323142</v>
+        <v>55.13855778323143</v>
       </c>
       <c r="N12" t="n">
         <v>56.59791133785426</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77603157464004</v>
+        <v>51.77603157464005</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55482999422416</v>
+        <v>41.55482999422417</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77830337066241</v>
+        <v>27.77830337066242</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51118961363033</v>
+        <v>13.51118961363034</v>
       </c>
       <c r="S12" t="n">
         <v>4.042094377912151</v>
       </c>
       <c r="T12" t="n">
-        <v>0.877139252255317</v>
+        <v>0.8771392522553171</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431674514018473</v>
@@ -31928,10 +31928,10 @@
         <v>27.12395770753397</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59841034309698</v>
+        <v>28.59841034309699</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91840406572823</v>
+        <v>27.91840406572824</v>
       </c>
       <c r="O13" t="n">
         <v>25.78716487934073</v>
@@ -31943,16 +31943,16 @@
         <v>15.27692151425311</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203197677721839</v>
+        <v>8.203197677721841</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179443984673021</v>
+        <v>3.179443984673022</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795193911300574</v>
+        <v>0.7795193911300575</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951311376128407</v>
+        <v>0.009951311376128409</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,31 +31992,31 @@
         <v>0.406720263948966</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165323903167349</v>
+        <v>4.16532390316735</v>
       </c>
       <c r="I14" t="n">
         <v>15.68008297589253</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51987400233858</v>
+        <v>34.51987400233859</v>
       </c>
       <c r="K14" t="n">
         <v>51.73634277529833</v>
       </c>
       <c r="L14" t="n">
-        <v>64.1835080531265</v>
+        <v>64.18350805312652</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712894</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57211349707393</v>
+        <v>72.57211349707394</v>
       </c>
       <c r="O14" t="n">
         <v>68.5277888724314</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48688235619129</v>
+        <v>58.4868823561913</v>
       </c>
       <c r="Q14" t="n">
         <v>43.92121290351893</v>
@@ -32031,7 +32031,7 @@
         <v>1.7804179554366</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253762111591727</v>
+        <v>0.03253762111591728</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,28 +32086,28 @@
         <v>47.25003121098965</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13855778323142</v>
+        <v>55.13855778323143</v>
       </c>
       <c r="N15" t="n">
         <v>56.59791133785426</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77603157464004</v>
+        <v>51.77603157464005</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55482999422416</v>
+        <v>41.55482999422417</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77830337066241</v>
+        <v>27.77830337066242</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51118961363033</v>
+        <v>13.51118961363034</v>
       </c>
       <c r="S15" t="n">
         <v>4.042094377912151</v>
       </c>
       <c r="T15" t="n">
-        <v>0.877139252255317</v>
+        <v>0.8771392522553171</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431674514018473</v>
@@ -32165,10 +32165,10 @@
         <v>27.12395770753397</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59841034309698</v>
+        <v>28.59841034309699</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91840406572823</v>
+        <v>27.91840406572824</v>
       </c>
       <c r="O16" t="n">
         <v>25.78716487934073</v>
@@ -32180,16 +32180,16 @@
         <v>15.27692151425311</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203197677721839</v>
+        <v>8.203197677721841</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179443984673021</v>
+        <v>3.179443984673022</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795193911300574</v>
+        <v>0.7795193911300575</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951311376128407</v>
+        <v>0.009951311376128409</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,31 +32229,31 @@
         <v>0.406720263948966</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165323903167349</v>
+        <v>4.16532390316735</v>
       </c>
       <c r="I17" t="n">
         <v>15.68008297589253</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51987400233858</v>
+        <v>34.51987400233859</v>
       </c>
       <c r="K17" t="n">
         <v>51.73634277529833</v>
       </c>
       <c r="L17" t="n">
-        <v>64.1835080531265</v>
+        <v>64.18350805312652</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712894</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57211349707393</v>
+        <v>72.57211349707394</v>
       </c>
       <c r="O17" t="n">
         <v>68.5277888724314</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48688235619129</v>
+        <v>58.4868823561913</v>
       </c>
       <c r="Q17" t="n">
         <v>43.92121290351893</v>
@@ -32268,7 +32268,7 @@
         <v>1.7804179554366</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253762111591727</v>
+        <v>0.03253762111591728</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,28 +32323,28 @@
         <v>47.25003121098965</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13855778323142</v>
+        <v>55.13855778323143</v>
       </c>
       <c r="N18" t="n">
         <v>56.59791133785426</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77603157464004</v>
+        <v>51.77603157464005</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55482999422416</v>
+        <v>41.55482999422417</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77830337066241</v>
+        <v>27.77830337066242</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51118961363033</v>
+        <v>13.51118961363034</v>
       </c>
       <c r="S18" t="n">
         <v>4.042094377912151</v>
       </c>
       <c r="T18" t="n">
-        <v>0.877139252255317</v>
+        <v>0.8771392522553171</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431674514018473</v>
@@ -32402,10 +32402,10 @@
         <v>27.12395770753397</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59841034309698</v>
+        <v>28.59841034309699</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91840406572823</v>
+        <v>27.91840406572824</v>
       </c>
       <c r="O19" t="n">
         <v>25.78716487934073</v>
@@ -32417,16 +32417,16 @@
         <v>15.27692151425311</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203197677721839</v>
+        <v>8.203197677721841</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179443984673021</v>
+        <v>3.179443984673022</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795193911300574</v>
+        <v>0.7795193911300575</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951311376128407</v>
+        <v>0.009951311376128409</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,31 +32466,31 @@
         <v>0.406720263948966</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165323903167349</v>
+        <v>4.16532390316735</v>
       </c>
       <c r="I20" t="n">
         <v>15.68008297589253</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51987400233858</v>
+        <v>34.51987400233859</v>
       </c>
       <c r="K20" t="n">
         <v>51.73634277529833</v>
       </c>
       <c r="L20" t="n">
-        <v>64.1835080531265</v>
+        <v>64.18350805312652</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712894</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57211349707393</v>
+        <v>72.57211349707394</v>
       </c>
       <c r="O20" t="n">
         <v>68.5277888724314</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48688235619129</v>
+        <v>58.4868823561913</v>
       </c>
       <c r="Q20" t="n">
         <v>43.92121290351893</v>
@@ -32505,7 +32505,7 @@
         <v>1.7804179554366</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253762111591727</v>
+        <v>0.03253762111591728</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,28 +32560,28 @@
         <v>47.25003121098965</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13855778323142</v>
+        <v>55.13855778323143</v>
       </c>
       <c r="N21" t="n">
         <v>56.59791133785426</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77603157464004</v>
+        <v>51.77603157464005</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55482999422416</v>
+        <v>41.55482999422417</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77830337066241</v>
+        <v>27.77830337066242</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51118961363033</v>
+        <v>13.51118961363034</v>
       </c>
       <c r="S21" t="n">
         <v>4.042094377912151</v>
       </c>
       <c r="T21" t="n">
-        <v>0.877139252255317</v>
+        <v>0.8771392522553171</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431674514018473</v>
@@ -32639,10 +32639,10 @@
         <v>27.12395770753397</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59841034309698</v>
+        <v>28.59841034309699</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91840406572823</v>
+        <v>27.91840406572824</v>
       </c>
       <c r="O22" t="n">
         <v>25.78716487934073</v>
@@ -32654,16 +32654,16 @@
         <v>15.27692151425311</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203197677721839</v>
+        <v>8.203197677721841</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179443984673021</v>
+        <v>3.179443984673022</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795193911300574</v>
+        <v>0.7795193911300575</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951311376128407</v>
+        <v>0.009951311376128409</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,31 +32703,31 @@
         <v>0.406720263948966</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165323903167349</v>
+        <v>4.16532390316735</v>
       </c>
       <c r="I23" t="n">
         <v>15.68008297589253</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51987400233858</v>
+        <v>34.51987400233859</v>
       </c>
       <c r="K23" t="n">
         <v>51.73634277529833</v>
       </c>
       <c r="L23" t="n">
-        <v>64.1835080531265</v>
+        <v>64.18350805312652</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712894</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57211349707393</v>
+        <v>72.57211349707394</v>
       </c>
       <c r="O23" t="n">
         <v>68.5277888724314</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48688235619129</v>
+        <v>58.4868823561913</v>
       </c>
       <c r="Q23" t="n">
         <v>43.92121290351893</v>
@@ -32742,7 +32742,7 @@
         <v>1.7804179554366</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253762111591727</v>
+        <v>0.03253762111591728</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,28 +32797,28 @@
         <v>47.25003121098965</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13855778323142</v>
+        <v>55.13855778323143</v>
       </c>
       <c r="N24" t="n">
         <v>56.59791133785426</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77603157464004</v>
+        <v>51.77603157464005</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55482999422416</v>
+        <v>41.55482999422417</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77830337066241</v>
+        <v>27.77830337066242</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51118961363033</v>
+        <v>13.51118961363034</v>
       </c>
       <c r="S24" t="n">
         <v>4.042094377912151</v>
       </c>
       <c r="T24" t="n">
-        <v>0.877139252255317</v>
+        <v>0.8771392522553171</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431674514018473</v>
@@ -32876,10 +32876,10 @@
         <v>27.12395770753397</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59841034309698</v>
+        <v>28.59841034309699</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91840406572823</v>
+        <v>27.91840406572824</v>
       </c>
       <c r="O25" t="n">
         <v>25.78716487934073</v>
@@ -32891,16 +32891,16 @@
         <v>15.27692151425311</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203197677721839</v>
+        <v>8.203197677721841</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179443984673021</v>
+        <v>3.179443984673022</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795193911300574</v>
+        <v>0.7795193911300575</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951311376128407</v>
+        <v>0.009951311376128409</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,31 +32940,31 @@
         <v>0.406720263948966</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165323903167349</v>
+        <v>4.16532390316735</v>
       </c>
       <c r="I26" t="n">
         <v>15.68008297589253</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51987400233858</v>
+        <v>34.51987400233859</v>
       </c>
       <c r="K26" t="n">
         <v>51.73634277529833</v>
       </c>
       <c r="L26" t="n">
-        <v>64.1835080531265</v>
+        <v>64.18350805312652</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712894</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57211349707393</v>
+        <v>72.57211349707394</v>
       </c>
       <c r="O26" t="n">
         <v>68.5277888724314</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48688235619129</v>
+        <v>58.4868823561913</v>
       </c>
       <c r="Q26" t="n">
         <v>43.92121290351893</v>
@@ -32979,7 +32979,7 @@
         <v>1.7804179554366</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253762111591727</v>
+        <v>0.03253762111591728</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33034,28 +33034,28 @@
         <v>47.25003121098965</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13855778323142</v>
+        <v>55.13855778323143</v>
       </c>
       <c r="N27" t="n">
         <v>56.59791133785426</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77603157464004</v>
+        <v>51.77603157464005</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55482999422416</v>
+        <v>41.55482999422417</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77830337066241</v>
+        <v>27.77830337066242</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51118961363033</v>
+        <v>13.51118961363034</v>
       </c>
       <c r="S27" t="n">
         <v>4.042094377912151</v>
       </c>
       <c r="T27" t="n">
-        <v>0.877139252255317</v>
+        <v>0.8771392522553171</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431674514018473</v>
@@ -33113,10 +33113,10 @@
         <v>27.12395770753397</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59841034309698</v>
+        <v>28.59841034309699</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91840406572823</v>
+        <v>27.91840406572824</v>
       </c>
       <c r="O28" t="n">
         <v>25.78716487934073</v>
@@ -33128,16 +33128,16 @@
         <v>15.27692151425311</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203197677721839</v>
+        <v>8.203197677721841</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179443984673021</v>
+        <v>3.179443984673022</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795193911300574</v>
+        <v>0.7795193911300575</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951311376128407</v>
+        <v>0.009951311376128409</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,31 +33177,31 @@
         <v>0.406720263948966</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165323903167349</v>
+        <v>4.16532390316735</v>
       </c>
       <c r="I29" t="n">
         <v>15.68008297589253</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51987400233858</v>
+        <v>34.51987400233859</v>
       </c>
       <c r="K29" t="n">
         <v>51.73634277529833</v>
       </c>
       <c r="L29" t="n">
-        <v>64.1835080531265</v>
+        <v>64.18350805312652</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712894</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57211349707393</v>
+        <v>72.57211349707394</v>
       </c>
       <c r="O29" t="n">
         <v>68.5277888724314</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48688235619129</v>
+        <v>58.4868823561913</v>
       </c>
       <c r="Q29" t="n">
         <v>43.92121290351893</v>
@@ -33216,7 +33216,7 @@
         <v>1.7804179554366</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253762111591727</v>
+        <v>0.03253762111591728</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33271,28 +33271,28 @@
         <v>47.25003121098965</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13855778323142</v>
+        <v>55.13855778323143</v>
       </c>
       <c r="N30" t="n">
         <v>56.59791133785426</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77603157464004</v>
+        <v>51.77603157464005</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55482999422416</v>
+        <v>41.55482999422417</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77830337066241</v>
+        <v>27.77830337066242</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51118961363033</v>
+        <v>13.51118961363034</v>
       </c>
       <c r="S30" t="n">
         <v>4.042094377912151</v>
       </c>
       <c r="T30" t="n">
-        <v>0.877139252255317</v>
+        <v>0.8771392522553171</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431674514018473</v>
@@ -33350,10 +33350,10 @@
         <v>27.12395770753397</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59841034309698</v>
+        <v>28.59841034309699</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91840406572823</v>
+        <v>27.91840406572824</v>
       </c>
       <c r="O31" t="n">
         <v>25.78716487934073</v>
@@ -33365,16 +33365,16 @@
         <v>15.27692151425311</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203197677721839</v>
+        <v>8.203197677721841</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179443984673021</v>
+        <v>3.179443984673022</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795193911300574</v>
+        <v>0.7795193911300575</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951311376128407</v>
+        <v>0.009951311376128409</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,31 +33414,31 @@
         <v>0.406720263948966</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165323903167349</v>
+        <v>4.16532390316735</v>
       </c>
       <c r="I32" t="n">
         <v>15.68008297589253</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51987400233858</v>
+        <v>34.51987400233859</v>
       </c>
       <c r="K32" t="n">
         <v>51.73634277529833</v>
       </c>
       <c r="L32" t="n">
-        <v>64.1835080531265</v>
+        <v>64.18350805312652</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712894</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57211349707393</v>
+        <v>72.57211349707394</v>
       </c>
       <c r="O32" t="n">
         <v>68.5277888724314</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48688235619129</v>
+        <v>58.4868823561913</v>
       </c>
       <c r="Q32" t="n">
         <v>43.92121290351893</v>
@@ -33453,7 +33453,7 @@
         <v>1.7804179554366</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253762111591727</v>
+        <v>0.03253762111591728</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33508,28 +33508,28 @@
         <v>47.25003121098965</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13855778323142</v>
+        <v>55.13855778323143</v>
       </c>
       <c r="N33" t="n">
         <v>56.59791133785426</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77603157464004</v>
+        <v>51.77603157464005</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55482999422416</v>
+        <v>41.55482999422417</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77830337066241</v>
+        <v>27.77830337066242</v>
       </c>
       <c r="R33" t="n">
-        <v>13.51118961363033</v>
+        <v>13.51118961363034</v>
       </c>
       <c r="S33" t="n">
         <v>4.042094377912151</v>
       </c>
       <c r="T33" t="n">
-        <v>0.877139252255317</v>
+        <v>0.8771392522553171</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431674514018473</v>
@@ -33587,10 +33587,10 @@
         <v>27.12395770753397</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59841034309698</v>
+        <v>28.59841034309699</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91840406572823</v>
+        <v>27.91840406572824</v>
       </c>
       <c r="O34" t="n">
         <v>25.78716487934073</v>
@@ -33602,16 +33602,16 @@
         <v>15.27692151425311</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203197677721839</v>
+        <v>8.203197677721841</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179443984673021</v>
+        <v>3.179443984673022</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795193911300574</v>
+        <v>0.7795193911300575</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951311376128407</v>
+        <v>0.009951311376128409</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,31 +33651,31 @@
         <v>0.406720263948966</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165323903167349</v>
+        <v>4.16532390316735</v>
       </c>
       <c r="I35" t="n">
         <v>15.68008297589253</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51987400233858</v>
+        <v>34.51987400233859</v>
       </c>
       <c r="K35" t="n">
         <v>51.73634277529833</v>
       </c>
       <c r="L35" t="n">
-        <v>64.1835080531265</v>
+        <v>64.18350805312652</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712894</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57211349707393</v>
+        <v>72.57211349707394</v>
       </c>
       <c r="O35" t="n">
         <v>68.5277888724314</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48688235619129</v>
+        <v>58.4868823561913</v>
       </c>
       <c r="Q35" t="n">
         <v>43.92121290351893</v>
@@ -33690,7 +33690,7 @@
         <v>1.7804179554366</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253762111591727</v>
+        <v>0.03253762111591728</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33745,28 +33745,28 @@
         <v>47.25003121098965</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13855778323142</v>
+        <v>55.13855778323143</v>
       </c>
       <c r="N36" t="n">
         <v>56.59791133785426</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77603157464004</v>
+        <v>51.77603157464005</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55482999422416</v>
+        <v>41.55482999422417</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77830337066241</v>
+        <v>27.77830337066242</v>
       </c>
       <c r="R36" t="n">
-        <v>13.51118961363033</v>
+        <v>13.51118961363034</v>
       </c>
       <c r="S36" t="n">
         <v>4.042094377912151</v>
       </c>
       <c r="T36" t="n">
-        <v>0.877139252255317</v>
+        <v>0.8771392522553171</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431674514018473</v>
@@ -33824,10 +33824,10 @@
         <v>27.12395770753397</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59841034309698</v>
+        <v>28.59841034309699</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91840406572823</v>
+        <v>27.91840406572824</v>
       </c>
       <c r="O37" t="n">
         <v>25.78716487934073</v>
@@ -33839,16 +33839,16 @@
         <v>15.27692151425311</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203197677721839</v>
+        <v>8.203197677721841</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179443984673021</v>
+        <v>3.179443984673022</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795193911300574</v>
+        <v>0.7795193911300575</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951311376128407</v>
+        <v>0.009951311376128409</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,31 +33888,31 @@
         <v>0.406720263948966</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165323903167349</v>
+        <v>4.16532390316735</v>
       </c>
       <c r="I38" t="n">
         <v>15.68008297589253</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51987400233858</v>
+        <v>34.51987400233859</v>
       </c>
       <c r="K38" t="n">
         <v>51.73634277529833</v>
       </c>
       <c r="L38" t="n">
-        <v>64.1835080531265</v>
+        <v>64.18350805312652</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712894</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57211349707393</v>
+        <v>72.57211349707394</v>
       </c>
       <c r="O38" t="n">
         <v>68.5277888724314</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48688235619129</v>
+        <v>58.4868823561913</v>
       </c>
       <c r="Q38" t="n">
         <v>43.92121290351893</v>
@@ -33927,7 +33927,7 @@
         <v>1.7804179554366</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253762111591727</v>
+        <v>0.03253762111591728</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33982,28 +33982,28 @@
         <v>47.25003121098965</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13855778323142</v>
+        <v>55.13855778323143</v>
       </c>
       <c r="N39" t="n">
         <v>56.59791133785426</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77603157464004</v>
+        <v>51.77603157464005</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55482999422416</v>
+        <v>41.55482999422417</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77830337066241</v>
+        <v>27.77830337066242</v>
       </c>
       <c r="R39" t="n">
-        <v>13.51118961363033</v>
+        <v>13.51118961363034</v>
       </c>
       <c r="S39" t="n">
         <v>4.042094377912151</v>
       </c>
       <c r="T39" t="n">
-        <v>0.877139252255317</v>
+        <v>0.8771392522553171</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431674514018473</v>
@@ -34061,10 +34061,10 @@
         <v>27.12395770753397</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59841034309698</v>
+        <v>28.59841034309699</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91840406572823</v>
+        <v>27.91840406572824</v>
       </c>
       <c r="O40" t="n">
         <v>25.78716487934073</v>
@@ -34076,16 +34076,16 @@
         <v>15.27692151425311</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203197677721839</v>
+        <v>8.203197677721841</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179443984673021</v>
+        <v>3.179443984673022</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795193911300574</v>
+        <v>0.7795193911300575</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951311376128407</v>
+        <v>0.009951311376128409</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,31 +34125,31 @@
         <v>0.406720263948966</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165323903167349</v>
+        <v>4.16532390316735</v>
       </c>
       <c r="I41" t="n">
         <v>15.68008297589253</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51987400233858</v>
+        <v>34.51987400233859</v>
       </c>
       <c r="K41" t="n">
         <v>51.73634277529833</v>
       </c>
       <c r="L41" t="n">
-        <v>64.1835080531265</v>
+        <v>64.18350805312652</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712894</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57211349707393</v>
+        <v>72.57211349707394</v>
       </c>
       <c r="O41" t="n">
         <v>68.5277888724314</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48688235619129</v>
+        <v>58.4868823561913</v>
       </c>
       <c r="Q41" t="n">
         <v>43.92121290351893</v>
@@ -34164,7 +34164,7 @@
         <v>1.7804179554366</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253762111591727</v>
+        <v>0.03253762111591728</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34219,28 +34219,28 @@
         <v>47.25003121098965</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13855778323142</v>
+        <v>55.13855778323143</v>
       </c>
       <c r="N42" t="n">
         <v>56.59791133785426</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77603157464004</v>
+        <v>51.77603157464005</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55482999422416</v>
+        <v>41.55482999422417</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77830337066241</v>
+        <v>27.77830337066242</v>
       </c>
       <c r="R42" t="n">
-        <v>13.51118961363033</v>
+        <v>13.51118961363034</v>
       </c>
       <c r="S42" t="n">
         <v>4.042094377912151</v>
       </c>
       <c r="T42" t="n">
-        <v>0.877139252255317</v>
+        <v>0.8771392522553171</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431674514018473</v>
@@ -34298,10 +34298,10 @@
         <v>27.12395770753397</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59841034309698</v>
+        <v>28.59841034309699</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91840406572823</v>
+        <v>27.91840406572824</v>
       </c>
       <c r="O43" t="n">
         <v>25.78716487934073</v>
@@ -34313,16 +34313,16 @@
         <v>15.27692151425311</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203197677721839</v>
+        <v>8.203197677721841</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179443984673021</v>
+        <v>3.179443984673022</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795193911300574</v>
+        <v>0.7795193911300575</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951311376128407</v>
+        <v>0.009951311376128409</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,31 +34362,31 @@
         <v>0.406720263948966</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165323903167349</v>
+        <v>4.16532390316735</v>
       </c>
       <c r="I44" t="n">
         <v>15.68008297589253</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51987400233858</v>
+        <v>34.51987400233859</v>
       </c>
       <c r="K44" t="n">
         <v>51.73634277529833</v>
       </c>
       <c r="L44" t="n">
-        <v>64.1835080531265</v>
+        <v>64.18350805312652</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712894</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57211349707393</v>
+        <v>72.57211349707394</v>
       </c>
       <c r="O44" t="n">
         <v>68.5277888724314</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48688235619129</v>
+        <v>58.4868823561913</v>
       </c>
       <c r="Q44" t="n">
         <v>43.92121290351893</v>
@@ -34401,7 +34401,7 @@
         <v>1.7804179554366</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253762111591727</v>
+        <v>0.03253762111591728</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34456,28 +34456,28 @@
         <v>47.25003121098965</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13855778323142</v>
+        <v>55.13855778323143</v>
       </c>
       <c r="N45" t="n">
         <v>56.59791133785426</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77603157464004</v>
+        <v>51.77603157464005</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55482999422416</v>
+        <v>41.55482999422417</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77830337066241</v>
+        <v>27.77830337066242</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51118961363033</v>
+        <v>13.51118961363034</v>
       </c>
       <c r="S45" t="n">
         <v>4.042094377912151</v>
       </c>
       <c r="T45" t="n">
-        <v>0.877139252255317</v>
+        <v>0.8771392522553171</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431674514018473</v>
@@ -34535,10 +34535,10 @@
         <v>27.12395770753397</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59841034309698</v>
+        <v>28.59841034309699</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91840406572823</v>
+        <v>27.91840406572824</v>
       </c>
       <c r="O46" t="n">
         <v>25.78716487934073</v>
@@ -34550,16 +34550,16 @@
         <v>15.27692151425311</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203197677721839</v>
+        <v>8.203197677721841</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179443984673021</v>
+        <v>3.179443984673022</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795193911300574</v>
+        <v>0.7795193911300575</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951311376128407</v>
+        <v>0.009951311376128409</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>41.31500304752736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="K5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34956,10 +34956,10 @@
         <v>41.31500304752734</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R5" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>13.3187674087812</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="K7" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>34.51987400233858</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73634277529831</v>
+        <v>51.73634277529834</v>
       </c>
       <c r="L11" t="n">
-        <v>1150.102665884297</v>
+        <v>1150.102665884298</v>
       </c>
       <c r="M11" t="n">
         <v>1240.151706628493</v>
@@ -35427,13 +35427,13 @@
         <v>1058.608260155569</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48688235619102</v>
+        <v>215.4728826924065</v>
       </c>
       <c r="Q11" t="n">
         <v>43.92121290351861</v>
       </c>
       <c r="R11" t="n">
-        <v>182.5346421164968</v>
+        <v>25.54864178028402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>348.3964923560442</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13997372174538</v>
+        <v>35.13997372174543</v>
       </c>
       <c r="L12" t="n">
         <v>47.25003121098962</v>
@@ -35500,13 +35500,13 @@
         <v>55.13855778323148</v>
       </c>
       <c r="N12" t="n">
-        <v>353.7179657318782</v>
+        <v>56.59791133785427</v>
       </c>
       <c r="O12" t="n">
         <v>51.77603157464</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55482999422406</v>
+        <v>338.6748843882478</v>
       </c>
       <c r="Q12" t="n">
         <v>573.9792514838703</v>
@@ -35573,10 +35573,10 @@
         <v>298.7300857272501</v>
       </c>
       <c r="L13" t="n">
-        <v>449.5581817155754</v>
+        <v>449.5581817155755</v>
       </c>
       <c r="M13" t="n">
-        <v>492.7235287076558</v>
+        <v>492.7235287076555</v>
       </c>
       <c r="N13" t="n">
         <v>474.6444678613288</v>
@@ -35646,31 +35646,31 @@
         <v>15.26746149676113</v>
       </c>
       <c r="J14" t="n">
-        <v>474.1710734497304</v>
+        <v>474.1710734497305</v>
       </c>
       <c r="K14" t="n">
-        <v>894.5144154603267</v>
+        <v>894.5144154603266</v>
       </c>
       <c r="L14" t="n">
         <v>1150.102665884297</v>
       </c>
       <c r="M14" t="n">
-        <v>71.4165195471287</v>
+        <v>71.41651954712916</v>
       </c>
       <c r="N14" t="n">
-        <v>1209.674116968233</v>
+        <v>72.57211349707404</v>
       </c>
       <c r="O14" t="n">
-        <v>1058.608260155569</v>
+        <v>679.4438702805242</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48688235619102</v>
+        <v>895.1635236020461</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92121290351861</v>
+        <v>595.9401886192709</v>
       </c>
       <c r="R14" t="n">
-        <v>68.84055706544132</v>
+        <v>196.411333450038</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>33.81937254301748</v>
+        <v>33.81937254301747</v>
       </c>
       <c r="J15" t="n">
         <v>348.3964923560442</v>
@@ -35810,10 +35810,10 @@
         <v>298.7300857272501</v>
       </c>
       <c r="L16" t="n">
-        <v>449.5581817155754</v>
+        <v>449.5581817155755</v>
       </c>
       <c r="M16" t="n">
-        <v>492.7235287076558</v>
+        <v>492.7235287076556</v>
       </c>
       <c r="N16" t="n">
         <v>474.6444678613288</v>
@@ -35883,31 +35883,31 @@
         <v>15.26746149676113</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51987400233858</v>
+        <v>474.1710734497305</v>
       </c>
       <c r="K17" t="n">
         <v>894.5144154603266</v>
       </c>
       <c r="L17" t="n">
-        <v>1150.102665884297</v>
+        <v>64.18350805312662</v>
       </c>
       <c r="M17" t="n">
-        <v>554.3596342796782</v>
+        <v>71.41651954712893</v>
       </c>
       <c r="N17" t="n">
-        <v>1209.674116968233</v>
+        <v>779.3268814531998</v>
       </c>
       <c r="O17" t="n">
         <v>1058.608260155569</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48688235619102</v>
+        <v>895.1635236020461</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92121290351861</v>
+        <v>595.9401886192709</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54864178028402</v>
+        <v>196.411333450038</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>33.81937254301748</v>
+        <v>33.81937254301747</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55980047098129</v>
+        <v>348.3964923560442</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13997372174541</v>
+        <v>35.13997372174538</v>
       </c>
       <c r="L18" t="n">
-        <v>47.25003121098965</v>
+        <v>47.25003121098962</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13855778323145</v>
+        <v>55.13855778323148</v>
       </c>
       <c r="N18" t="n">
-        <v>1274.120697355695</v>
+        <v>56.59791133785427</v>
       </c>
       <c r="O18" t="n">
         <v>51.77603157464</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55482999422406</v>
+        <v>338.674884388248</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77830337066234</v>
+        <v>573.9792514838703</v>
       </c>
       <c r="R18" t="n">
-        <v>85.50243949751848</v>
+        <v>131.8675311230645</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,10 +36047,10 @@
         <v>298.7300857272501</v>
       </c>
       <c r="L19" t="n">
-        <v>449.5581817155754</v>
+        <v>449.5581817155755</v>
       </c>
       <c r="M19" t="n">
-        <v>492.7235287076558</v>
+        <v>492.7235287076556</v>
       </c>
       <c r="N19" t="n">
         <v>474.6444678613288</v>
@@ -36120,31 +36120,31 @@
         <v>15.26746149676113</v>
       </c>
       <c r="J20" t="n">
-        <v>474.1710734497304</v>
+        <v>34.5198740023386</v>
       </c>
       <c r="K20" t="n">
-        <v>894.5144154603267</v>
+        <v>51.73634277529834</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18350805312639</v>
+        <v>1150.102665884298</v>
       </c>
       <c r="M20" t="n">
         <v>1240.151706628493</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57211349707404</v>
+        <v>1209.674116968233</v>
       </c>
       <c r="O20" t="n">
-        <v>596.6278410303303</v>
+        <v>1058.608260155569</v>
       </c>
       <c r="P20" t="n">
-        <v>895.1635236020461</v>
+        <v>215.4728826924047</v>
       </c>
       <c r="Q20" t="n">
-        <v>595.9401886192709</v>
+        <v>43.92121290351861</v>
       </c>
       <c r="R20" t="n">
-        <v>196.411333450038</v>
+        <v>25.54864178028402</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>33.81937254301748</v>
+        <v>33.81937254301747</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55980047098129</v>
+        <v>348.3964923560442</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13997372174541</v>
+        <v>332.2600281157693</v>
       </c>
       <c r="L21" t="n">
-        <v>47.25003121098965</v>
+        <v>47.25003121098962</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13855778323145</v>
+        <v>55.13855778323148</v>
       </c>
       <c r="N21" t="n">
-        <v>1274.120697355695</v>
+        <v>56.59791133785427</v>
       </c>
       <c r="O21" t="n">
         <v>51.77603157464</v>
@@ -36220,10 +36220,10 @@
         <v>41.55482999422406</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.7695532545506</v>
+        <v>573.9792514838703</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51118961363022</v>
+        <v>131.8675311230645</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,10 +36284,10 @@
         <v>298.7300857272501</v>
       </c>
       <c r="L22" t="n">
-        <v>449.5581817155754</v>
+        <v>449.5581817155755</v>
       </c>
       <c r="M22" t="n">
-        <v>492.7235287076558</v>
+        <v>492.7235287076556</v>
       </c>
       <c r="N22" t="n">
         <v>474.6444678613288</v>
@@ -36357,19 +36357,19 @@
         <v>15.26746149676113</v>
       </c>
       <c r="J23" t="n">
-        <v>214.6865296044506</v>
+        <v>474.1710734497305</v>
       </c>
       <c r="K23" t="n">
         <v>894.5144154603266</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18350805312662</v>
+        <v>770.9382760092521</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712916</v>
       </c>
       <c r="N23" t="n">
-        <v>1209.674116968233</v>
+        <v>72.57211349707404</v>
       </c>
       <c r="O23" t="n">
         <v>1058.608260155569</v>
@@ -36381,7 +36381,7 @@
         <v>595.9401886192709</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54864178028402</v>
+        <v>196.411333450038</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>33.81937254301748</v>
+        <v>33.81937254301747</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55980047098129</v>
+        <v>348.3964923560442</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13997372174541</v>
+        <v>332.2600281157693</v>
       </c>
       <c r="L24" t="n">
-        <v>47.25003121098965</v>
+        <v>47.25003121098962</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13855778323145</v>
+        <v>55.13855778323148</v>
       </c>
       <c r="N24" t="n">
         <v>56.59791133785427</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77603157464006</v>
+        <v>51.77603157464</v>
       </c>
       <c r="P24" t="n">
-        <v>869.5580284580608</v>
+        <v>41.55482999422406</v>
       </c>
       <c r="Q24" t="n">
-        <v>370.9327992991202</v>
+        <v>573.9792514838703</v>
       </c>
       <c r="R24" t="n">
         <v>131.8675311230645</v>
@@ -36594,31 +36594,31 @@
         <v>15.26746149676113</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51987400233858</v>
+        <v>474.1710734497305</v>
       </c>
       <c r="K26" t="n">
         <v>894.5144154603266</v>
       </c>
       <c r="L26" t="n">
-        <v>1150.102665884297</v>
+        <v>64.18350805312662</v>
       </c>
       <c r="M26" t="n">
-        <v>1240.151706628493</v>
+        <v>71.41651954712893</v>
       </c>
       <c r="N26" t="n">
-        <v>1209.674116968233</v>
+        <v>779.3268814531998</v>
       </c>
       <c r="O26" t="n">
-        <v>372.816187806754</v>
+        <v>1058.608260155569</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48688235619102</v>
+        <v>895.1635236020461</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92121290351861</v>
+        <v>595.9401886192709</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54864178028402</v>
+        <v>196.411333450038</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492429956696668</v>
+        <v>33.81937254301747</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55980047098127</v>
+        <v>348.3964923560442</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13997372174541</v>
+        <v>35.13997372174538</v>
       </c>
       <c r="L27" t="n">
-        <v>535.0878112352027</v>
+        <v>47.25003121098962</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13855778323148</v>
+        <v>898.4595602904634</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59791133785427</v>
+        <v>56.59791133785416</v>
       </c>
       <c r="O27" t="n">
         <v>51.77603157464</v>
       </c>
       <c r="P27" t="n">
-        <v>869.5580284580608</v>
+        <v>41.55482999422406</v>
       </c>
       <c r="Q27" t="n">
         <v>27.77830337066234</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51118961363022</v>
+        <v>131.8675311230645</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>15.26746149676113</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51987400233858</v>
+        <v>474.1710734497305</v>
       </c>
       <c r="K29" t="n">
-        <v>208.7223431115111</v>
+        <v>894.5144154603266</v>
       </c>
       <c r="L29" t="n">
-        <v>1150.102665884297</v>
+        <v>64.18350805312662</v>
       </c>
       <c r="M29" t="n">
-        <v>1240.151706628493</v>
+        <v>71.41651954712893</v>
       </c>
       <c r="N29" t="n">
-        <v>1209.674116968233</v>
+        <v>779.3268814531998</v>
       </c>
       <c r="O29" t="n">
         <v>1058.608260155569</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48688235619102</v>
+        <v>895.1635236020461</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92121290351861</v>
+        <v>595.9401886192709</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54864178028402</v>
+        <v>196.411333450038</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>33.81937254301738</v>
+        <v>7.492429956696668</v>
       </c>
       <c r="J30" t="n">
-        <v>348.3964923560443</v>
+        <v>20.55980047098129</v>
       </c>
       <c r="K30" t="n">
-        <v>332.2600281157706</v>
+        <v>35.13997372174541</v>
       </c>
       <c r="L30" t="n">
-        <v>47.25003121098962</v>
+        <v>47.25003121098965</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13855778323159</v>
+        <v>55.13855778323145</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59791133785438</v>
+        <v>348.3968597064073</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77603157464</v>
+        <v>1075.818061694137</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55482999422384</v>
+        <v>41.55482999422406</v>
       </c>
       <c r="Q30" t="n">
-        <v>573.97925148387</v>
+        <v>27.77830337066234</v>
       </c>
       <c r="R30" t="n">
-        <v>131.8675311230645</v>
+        <v>13.51118961363022</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,10 +36995,10 @@
         <v>298.7300857272501</v>
       </c>
       <c r="L31" t="n">
-        <v>449.5581817155754</v>
+        <v>449.5581817155755</v>
       </c>
       <c r="M31" t="n">
-        <v>492.7235287076558</v>
+        <v>492.7235287076556</v>
       </c>
       <c r="N31" t="n">
         <v>474.6444678613288</v>
@@ -37074,13 +37074,13 @@
         <v>894.5144154603267</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18350805312639</v>
+        <v>64.18350805312662</v>
       </c>
       <c r="M32" t="n">
         <v>71.41651954712893</v>
       </c>
       <c r="N32" t="n">
-        <v>779.3268814531991</v>
+        <v>779.3268814531989</v>
       </c>
       <c r="O32" t="n">
         <v>1058.608260155569</v>
@@ -37147,19 +37147,19 @@
         <v>33.81937254301748</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55980047098129</v>
+        <v>348.3964923560442</v>
       </c>
       <c r="K33" t="n">
-        <v>722.7495899544497</v>
+        <v>332.2600281157693</v>
       </c>
       <c r="L33" t="n">
         <v>47.25003121098962</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13855778323136</v>
+        <v>55.13855778323148</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59791133785416</v>
+        <v>56.59791133785427</v>
       </c>
       <c r="O33" t="n">
         <v>51.77603157464</v>
@@ -37171,7 +37171,7 @@
         <v>573.9792514838703</v>
       </c>
       <c r="R33" t="n">
-        <v>69.21466116944725</v>
+        <v>131.8675311230645</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>474.1710734497304</v>
       </c>
       <c r="K35" t="n">
-        <v>464.1671799452929</v>
+        <v>894.5144154603267</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18350805312662</v>
+        <v>770.9382760092512</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41651954712893</v>
+        <v>71.41651954712916</v>
       </c>
       <c r="N35" t="n">
-        <v>1209.674116968233</v>
+        <v>72.57211349707404</v>
       </c>
       <c r="O35" t="n">
         <v>1058.608260155569</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492429956696668</v>
+        <v>33.81937254301748</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55980047098127</v>
+        <v>348.3964923560442</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13997372174541</v>
+        <v>35.13997372174538</v>
       </c>
       <c r="L36" t="n">
-        <v>47.25003121098965</v>
+        <v>47.25003121098962</v>
       </c>
       <c r="M36" t="n">
-        <v>1252.623194761847</v>
+        <v>55.13855778323148</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59791133785416</v>
+        <v>56.59791133785427</v>
       </c>
       <c r="O36" t="n">
         <v>51.77603157464</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55482999422406</v>
+        <v>338.674884388248</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77830337066234</v>
+        <v>573.9792514838703</v>
       </c>
       <c r="R36" t="n">
         <v>131.8675311230645</v>
@@ -37545,7 +37545,7 @@
         <v>474.1710734497304</v>
       </c>
       <c r="K38" t="n">
-        <v>464.1671799452929</v>
+        <v>894.5144154603267</v>
       </c>
       <c r="L38" t="n">
         <v>64.18350805312662</v>
@@ -37554,7 +37554,7 @@
         <v>71.41651954712893</v>
       </c>
       <c r="N38" t="n">
-        <v>1209.674116968233</v>
+        <v>779.3268814531989</v>
       </c>
       <c r="O38" t="n">
         <v>1058.608260155569</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492429956696668</v>
+        <v>33.81937254301748</v>
       </c>
       <c r="J39" t="n">
         <v>348.3964923560442</v>
       </c>
       <c r="K39" t="n">
-        <v>358.5869707020901</v>
+        <v>332.2600281157693</v>
       </c>
       <c r="L39" t="n">
         <v>47.25003121098962</v>
@@ -37779,7 +37779,7 @@
         <v>15.26746149676113</v>
       </c>
       <c r="J41" t="n">
-        <v>458.7046782361828</v>
+        <v>474.1710734497304</v>
       </c>
       <c r="K41" t="n">
         <v>51.73634277529834</v>
@@ -37788,7 +37788,7 @@
         <v>1150.102665884297</v>
       </c>
       <c r="M41" t="n">
-        <v>1240.151706628493</v>
+        <v>388.0086701690907</v>
       </c>
       <c r="N41" t="n">
         <v>1209.674116968233</v>
@@ -37797,7 +37797,7 @@
         <v>68.5277888724313</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48688235619102</v>
+        <v>895.1635236020461</v>
       </c>
       <c r="Q41" t="n">
         <v>595.9401886192709</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492429956696668</v>
+        <v>33.81937254301748</v>
       </c>
       <c r="J42" t="n">
         <v>348.3964923560442</v>
       </c>
       <c r="K42" t="n">
-        <v>358.5869707020901</v>
+        <v>332.2600281157693</v>
       </c>
       <c r="L42" t="n">
         <v>47.25003121098962</v>
@@ -38022,16 +38022,16 @@
         <v>894.5144154603267</v>
       </c>
       <c r="L44" t="n">
-        <v>770.9382760092512</v>
+        <v>64.18350805312662</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41651954712916</v>
+        <v>71.41651954712893</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57211349707404</v>
+        <v>1209.674116968233</v>
       </c>
       <c r="O44" t="n">
-        <v>1058.608260155569</v>
+        <v>628.2610246405357</v>
       </c>
       <c r="P44" t="n">
         <v>895.1635236020461</v>
@@ -38101,7 +38101,7 @@
         <v>35.13997372174538</v>
       </c>
       <c r="L45" t="n">
-        <v>344.3700856050135</v>
+        <v>47.25003121098962</v>
       </c>
       <c r="M45" t="n">
         <v>55.13855778323148</v>
@@ -38113,7 +38113,7 @@
         <v>51.77603157464</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55482999422406</v>
+        <v>338.674884388248</v>
       </c>
       <c r="Q45" t="n">
         <v>573.9792514838703</v>
